--- a/docs/Analysis Types.xlsx
+++ b/docs/Analysis Types.xlsx
@@ -4104,7 +4104,7 @@
         <v>18</v>
       </c>
       <c r="J68" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
@@ -4153,7 +4153,7 @@
         <v>18</v>
       </c>
       <c r="J69" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
@@ -4251,7 +4251,7 @@
         <v>18</v>
       </c>
       <c r="J71" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
@@ -4447,7 +4447,7 @@
         <v>16</v>
       </c>
       <c r="J75" s="10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
@@ -4496,7 +4496,7 @@
         <v>16</v>
       </c>
       <c r="J76" s="10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K76" s="3"/>
       <c r="L76" s="3"/>
@@ -4594,7 +4594,7 @@
         <v>18</v>
       </c>
       <c r="J78" s="10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K78" s="3"/>
       <c r="L78" s="3"/>
@@ -4643,7 +4643,7 @@
         <v>18</v>
       </c>
       <c r="J79" s="10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K79" s="3"/>
       <c r="L79" s="3"/>
@@ -4692,7 +4692,7 @@
         <v>20</v>
       </c>
       <c r="J80" s="10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="K80" s="3"/>
       <c r="L80" s="3"/>
@@ -4741,7 +4741,7 @@
         <v>18</v>
       </c>
       <c r="J81" s="10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K81" s="3"/>
       <c r="L81" s="3"/>
@@ -5329,7 +5329,7 @@
         <v>16</v>
       </c>
       <c r="J93" s="28" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="K93" s="3"/>
       <c r="L93" s="3"/>
@@ -5378,7 +5378,7 @@
         <v>16</v>
       </c>
       <c r="J94" s="32" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="K94" s="3"/>
       <c r="L94" s="3"/>

--- a/docs/Analysis Types.xlsx
+++ b/docs/Analysis Types.xlsx
@@ -3712,7 +3712,7 @@
         <v>18</v>
       </c>
       <c r="J60" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
@@ -3761,7 +3761,7 @@
         <v>18</v>
       </c>
       <c r="J61" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
@@ -3859,7 +3859,7 @@
         <v>18</v>
       </c>
       <c r="J63" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
@@ -4104,7 +4104,7 @@
         <v>18</v>
       </c>
       <c r="J68" s="10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
@@ -4153,7 +4153,7 @@
         <v>18</v>
       </c>
       <c r="J69" s="10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
@@ -4251,7 +4251,7 @@
         <v>18</v>
       </c>
       <c r="J71" s="10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
@@ -4594,7 +4594,7 @@
         <v>18</v>
       </c>
       <c r="J78" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K78" s="3"/>
       <c r="L78" s="3"/>
@@ -4643,7 +4643,7 @@
         <v>18</v>
       </c>
       <c r="J79" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K79" s="3"/>
       <c r="L79" s="3"/>
@@ -4741,7 +4741,7 @@
         <v>18</v>
       </c>
       <c r="J81" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K81" s="3"/>
       <c r="L81" s="3"/>
@@ -4888,7 +4888,7 @@
         <v>20</v>
       </c>
       <c r="J84" s="32" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="K84" s="3"/>
       <c r="L84" s="3"/>

--- a/docs/Analysis Types.xlsx
+++ b/docs/Analysis Types.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="43">
   <si>
     <t>Cohort</t>
   </si>
@@ -113,7 +113,7 @@
         <i/>
         <color theme="1"/>
       </rPr>
-      <t>models including vaccination run in addition</t>
+      <t>models including other variables run in addition</t>
     </r>
   </si>
   <si>
@@ -142,9 +142,6 @@
   </si>
   <si>
     <t>Sensitivity</t>
-  </si>
-  <si>
-    <t>Baseline</t>
   </si>
   <si>
     <t>Adults</t>
@@ -461,7 +458,7 @@
     </xf>
     <xf borderId="17" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="18" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="19" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -1795,7 +1792,7 @@
         <v>29</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="I21" s="28" t="s">
         <v>16</v>
@@ -1844,7 +1841,7 @@
         <v>31</v>
       </c>
       <c r="H22" s="32" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="I22" s="32" t="s">
         <v>16</v>
@@ -1872,7 +1869,7 @@
     </row>
     <row r="23">
       <c r="A23" s="33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23" s="8">
         <v>1.0</v>
@@ -1921,7 +1918,7 @@
     </row>
     <row r="24">
       <c r="A24" s="33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B24" s="8">
         <v>2.0</v>
@@ -1970,7 +1967,7 @@
     </row>
     <row r="25">
       <c r="A25" s="33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B25" s="8">
         <v>3.0</v>
@@ -2019,7 +2016,7 @@
     </row>
     <row r="26">
       <c r="A26" s="33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B26" s="8">
         <v>4.0</v>
@@ -2068,7 +2065,7 @@
     </row>
     <row r="27">
       <c r="A27" s="33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B27" s="19" t="s">
         <v>22</v>
@@ -2117,7 +2114,7 @@
     </row>
     <row r="28">
       <c r="A28" s="33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" s="8">
         <v>6.0</v>
@@ -2166,7 +2163,7 @@
     </row>
     <row r="29">
       <c r="A29" s="33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B29" s="8">
         <v>7.0</v>
@@ -2215,7 +2212,7 @@
     </row>
     <row r="30">
       <c r="A30" s="33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B30" s="8">
         <v>8.0</v>
@@ -2264,7 +2261,7 @@
     </row>
     <row r="31">
       <c r="A31" s="34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B31" s="26">
         <v>1.0</v>
@@ -2313,7 +2310,7 @@
     </row>
     <row r="32">
       <c r="A32" s="33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32" s="8">
         <v>2.0</v>
@@ -2362,7 +2359,7 @@
     </row>
     <row r="33">
       <c r="A33" s="33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B33" s="8">
         <v>3.0</v>
@@ -2411,7 +2408,7 @@
     </row>
     <row r="34">
       <c r="A34" s="33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B34" s="8">
         <v>4.0</v>
@@ -2460,7 +2457,7 @@
     </row>
     <row r="35">
       <c r="A35" s="33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35" s="19" t="s">
         <v>22</v>
@@ -2509,7 +2506,7 @@
     </row>
     <row r="36">
       <c r="A36" s="33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="8">
         <v>6.0</v>
@@ -2558,7 +2555,7 @@
     </row>
     <row r="37">
       <c r="A37" s="33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B37" s="8">
         <v>7.0</v>
@@ -2607,7 +2604,7 @@
     </row>
     <row r="38">
       <c r="A38" s="35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B38" s="30">
         <v>8.0</v>
@@ -2656,7 +2653,7 @@
     </row>
     <row r="39">
       <c r="A39" s="33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B39" s="8">
         <v>2.0</v>
@@ -2677,7 +2674,7 @@
         <v>29</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="I39" s="10" t="s">
         <v>16</v>
@@ -2705,7 +2702,7 @@
     </row>
     <row r="40">
       <c r="A40" s="33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B40" s="8">
         <v>3.0</v>
@@ -2726,7 +2723,7 @@
         <v>31</v>
       </c>
       <c r="H40" s="32" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="I40" s="10" t="s">
         <v>16</v>
@@ -2754,7 +2751,7 @@
     </row>
     <row r="41">
       <c r="A41" s="36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B41" s="26">
         <v>1.0</v>
@@ -2803,7 +2800,7 @@
     </row>
     <row r="42">
       <c r="A42" s="36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B42" s="8">
         <v>2.0</v>
@@ -2852,7 +2849,7 @@
     </row>
     <row r="43">
       <c r="A43" s="36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B43" s="8">
         <v>3.0</v>
@@ -2901,7 +2898,7 @@
     </row>
     <row r="44">
       <c r="A44" s="36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B44" s="8">
         <v>4.0</v>
@@ -2950,7 +2947,7 @@
     </row>
     <row r="45">
       <c r="A45" s="36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B45" s="19" t="s">
         <v>22</v>
@@ -2999,7 +2996,7 @@
     </row>
     <row r="46">
       <c r="A46" s="36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B46" s="8">
         <v>6.0</v>
@@ -3048,7 +3045,7 @@
     </row>
     <row r="47">
       <c r="A47" s="36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B47" s="8">
         <v>7.0</v>
@@ -3097,7 +3094,7 @@
     </row>
     <row r="48">
       <c r="A48" s="36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B48" s="30">
         <v>8.0</v>
@@ -3146,7 +3143,7 @@
     </row>
     <row r="49">
       <c r="A49" s="36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B49" s="8">
         <v>1.0</v>
@@ -3195,7 +3192,7 @@
     </row>
     <row r="50">
       <c r="A50" s="36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B50" s="8">
         <v>2.0</v>
@@ -3244,7 +3241,7 @@
     </row>
     <row r="51">
       <c r="A51" s="36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B51" s="8">
         <v>3.0</v>
@@ -3293,7 +3290,7 @@
     </row>
     <row r="52">
       <c r="A52" s="36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B52" s="8">
         <v>4.0</v>
@@ -3342,7 +3339,7 @@
     </row>
     <row r="53">
       <c r="A53" s="36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B53" s="19" t="s">
         <v>22</v>
@@ -3391,7 +3388,7 @@
     </row>
     <row r="54">
       <c r="A54" s="36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B54" s="8">
         <v>6.0</v>
@@ -3440,7 +3437,7 @@
     </row>
     <row r="55">
       <c r="A55" s="36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B55" s="8">
         <v>7.0</v>
@@ -3489,7 +3486,7 @@
     </row>
     <row r="56">
       <c r="A56" s="36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B56" s="8">
         <v>8.0</v>
@@ -3538,7 +3535,7 @@
     </row>
     <row r="57">
       <c r="A57" s="36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B57" s="26">
         <v>2.0</v>
@@ -3559,7 +3556,7 @@
         <v>29</v>
       </c>
       <c r="H57" s="28" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="I57" s="28" t="s">
         <v>16</v>
@@ -3587,7 +3584,7 @@
     </row>
     <row r="58">
       <c r="A58" s="36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B58" s="30">
         <v>3.0</v>
@@ -3608,7 +3605,7 @@
         <v>31</v>
       </c>
       <c r="H58" s="32" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="I58" s="32" t="s">
         <v>16</v>
@@ -3636,7 +3633,7 @@
     </row>
     <row r="59">
       <c r="A59" s="43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B59" s="8">
         <v>1.0</v>
@@ -3657,7 +3654,7 @@
         <v>14</v>
       </c>
       <c r="H59" s="10" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="I59" s="28" t="s">
         <v>16</v>
@@ -3685,7 +3682,7 @@
     </row>
     <row r="60">
       <c r="A60" s="43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B60" s="8">
         <v>2.0</v>
@@ -3706,7 +3703,7 @@
         <v>14</v>
       </c>
       <c r="H60" s="10" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="I60" s="10" t="s">
         <v>18</v>
@@ -3734,7 +3731,7 @@
     </row>
     <row r="61">
       <c r="A61" s="43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B61" s="8">
         <v>3.0</v>
@@ -3755,7 +3752,7 @@
         <v>14</v>
       </c>
       <c r="H61" s="10" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="I61" s="10" t="s">
         <v>18</v>
@@ -3783,7 +3780,7 @@
     </row>
     <row r="62">
       <c r="A62" s="43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B62" s="8">
         <v>4.0</v>
@@ -3804,7 +3801,7 @@
         <v>14</v>
       </c>
       <c r="H62" s="10" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="I62" s="10" t="s">
         <v>20</v>
@@ -3832,7 +3829,7 @@
     </row>
     <row r="63">
       <c r="A63" s="43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B63" s="19" t="s">
         <v>22</v>
@@ -3853,7 +3850,7 @@
         <v>14</v>
       </c>
       <c r="H63" s="10" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="I63" s="10" t="s">
         <v>18</v>
@@ -3881,7 +3878,7 @@
     </row>
     <row r="64">
       <c r="A64" s="43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B64" s="8">
         <v>6.0</v>
@@ -3902,7 +3899,7 @@
         <v>14</v>
       </c>
       <c r="H64" s="10" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="I64" s="10" t="s">
         <v>16</v>
@@ -3930,7 +3927,7 @@
     </row>
     <row r="65">
       <c r="A65" s="43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B65" s="8">
         <v>7.0</v>
@@ -3951,7 +3948,7 @@
         <v>14</v>
       </c>
       <c r="H65" s="10" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="I65" s="10" t="s">
         <v>16</v>
@@ -3979,7 +3976,7 @@
     </row>
     <row r="66">
       <c r="A66" s="43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B66" s="8">
         <v>8.0</v>
@@ -4000,7 +3997,7 @@
         <v>14</v>
       </c>
       <c r="H66" s="32" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="I66" s="32" t="s">
         <v>18</v>
@@ -4028,7 +4025,7 @@
     </row>
     <row r="67">
       <c r="A67" s="44" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B67" s="26">
         <v>1.0</v>
@@ -4049,7 +4046,7 @@
         <v>27</v>
       </c>
       <c r="H67" s="10" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="I67" s="28" t="s">
         <v>16</v>
@@ -4077,7 +4074,7 @@
     </row>
     <row r="68">
       <c r="A68" s="43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B68" s="8">
         <v>2.0</v>
@@ -4098,7 +4095,7 @@
         <v>27</v>
       </c>
       <c r="H68" s="10" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="I68" s="10" t="s">
         <v>18</v>
@@ -4126,7 +4123,7 @@
     </row>
     <row r="69">
       <c r="A69" s="43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B69" s="8">
         <v>3.0</v>
@@ -4147,7 +4144,7 @@
         <v>27</v>
       </c>
       <c r="H69" s="10" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="I69" s="10" t="s">
         <v>18</v>
@@ -4175,7 +4172,7 @@
     </row>
     <row r="70">
       <c r="A70" s="43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B70" s="8">
         <v>4.0</v>
@@ -4196,7 +4193,7 @@
         <v>27</v>
       </c>
       <c r="H70" s="10" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="I70" s="10" t="s">
         <v>20</v>
@@ -4224,7 +4221,7 @@
     </row>
     <row r="71">
       <c r="A71" s="43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B71" s="19" t="s">
         <v>22</v>
@@ -4245,7 +4242,7 @@
         <v>27</v>
       </c>
       <c r="H71" s="10" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="I71" s="10" t="s">
         <v>18</v>
@@ -4273,7 +4270,7 @@
     </row>
     <row r="72">
       <c r="A72" s="43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B72" s="8">
         <v>6.0</v>
@@ -4294,7 +4291,7 @@
         <v>27</v>
       </c>
       <c r="H72" s="10" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="I72" s="10" t="s">
         <v>16</v>
@@ -4322,7 +4319,7 @@
     </row>
     <row r="73">
       <c r="A73" s="43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B73" s="8">
         <v>7.0</v>
@@ -4343,7 +4340,7 @@
         <v>27</v>
       </c>
       <c r="H73" s="10" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="I73" s="10" t="s">
         <v>16</v>
@@ -4371,7 +4368,7 @@
     </row>
     <row r="74">
       <c r="A74" s="45" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B74" s="30">
         <v>8.0</v>
@@ -4392,7 +4389,7 @@
         <v>27</v>
       </c>
       <c r="H74" s="10" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="I74" s="32" t="s">
         <v>18</v>
@@ -4420,7 +4417,7 @@
     </row>
     <row r="75">
       <c r="A75" s="43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B75" s="8">
         <v>2.0</v>
@@ -4441,7 +4438,7 @@
         <v>29</v>
       </c>
       <c r="H75" s="28" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="I75" s="10" t="s">
         <v>16</v>
@@ -4469,7 +4466,7 @@
     </row>
     <row r="76">
       <c r="A76" s="43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B76" s="8">
         <v>3.0</v>
@@ -4490,7 +4487,7 @@
         <v>31</v>
       </c>
       <c r="H76" s="32" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="I76" s="10" t="s">
         <v>16</v>
@@ -4518,7 +4515,7 @@
     </row>
     <row r="77">
       <c r="A77" s="46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B77" s="26">
         <v>1.0</v>
@@ -4539,7 +4536,7 @@
         <v>14</v>
       </c>
       <c r="H77" s="10" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="I77" s="28" t="s">
         <v>16</v>
@@ -4567,7 +4564,7 @@
     </row>
     <row r="78">
       <c r="A78" s="47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B78" s="8">
         <v>2.0</v>
@@ -4588,7 +4585,7 @@
         <v>14</v>
       </c>
       <c r="H78" s="10" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="I78" s="10" t="s">
         <v>18</v>
@@ -4616,7 +4613,7 @@
     </row>
     <row r="79">
       <c r="A79" s="47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B79" s="8">
         <v>3.0</v>
@@ -4637,7 +4634,7 @@
         <v>14</v>
       </c>
       <c r="H79" s="10" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="I79" s="10" t="s">
         <v>18</v>
@@ -4665,7 +4662,7 @@
     </row>
     <row r="80">
       <c r="A80" s="47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B80" s="8">
         <v>4.0</v>
@@ -4686,7 +4683,7 @@
         <v>14</v>
       </c>
       <c r="H80" s="10" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="I80" s="10" t="s">
         <v>20</v>
@@ -4714,7 +4711,7 @@
     </row>
     <row r="81">
       <c r="A81" s="47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B81" s="19" t="s">
         <v>22</v>
@@ -4735,7 +4732,7 @@
         <v>14</v>
       </c>
       <c r="H81" s="10" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="I81" s="10" t="s">
         <v>18</v>
@@ -4763,7 +4760,7 @@
     </row>
     <row r="82">
       <c r="A82" s="47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B82" s="8">
         <v>6.0</v>
@@ -4784,7 +4781,7 @@
         <v>14</v>
       </c>
       <c r="H82" s="10" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="I82" s="10" t="s">
         <v>16</v>
@@ -4812,7 +4809,7 @@
     </row>
     <row r="83">
       <c r="A83" s="47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B83" s="8">
         <v>7.0</v>
@@ -4833,7 +4830,7 @@
         <v>14</v>
       </c>
       <c r="H83" s="10" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="I83" s="10" t="s">
         <v>16</v>
@@ -4861,7 +4858,7 @@
     </row>
     <row r="84">
       <c r="A84" s="48" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B84" s="30">
         <v>8.0</v>
@@ -4882,7 +4879,7 @@
         <v>14</v>
       </c>
       <c r="H84" s="32" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="I84" s="32" t="s">
         <v>20</v>
@@ -4910,7 +4907,7 @@
     </row>
     <row r="85">
       <c r="A85" s="47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B85" s="8">
         <v>1.0</v>
@@ -4931,7 +4928,7 @@
         <v>27</v>
       </c>
       <c r="H85" s="10" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="I85" s="28" t="s">
         <v>16</v>
@@ -4959,7 +4956,7 @@
     </row>
     <row r="86">
       <c r="A86" s="47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B86" s="8">
         <v>2.0</v>
@@ -4980,7 +4977,7 @@
         <v>27</v>
       </c>
       <c r="H86" s="10" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="I86" s="10" t="s">
         <v>18</v>
@@ -5008,7 +5005,7 @@
     </row>
     <row r="87">
       <c r="A87" s="47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B87" s="8">
         <v>3.0</v>
@@ -5029,7 +5026,7 @@
         <v>27</v>
       </c>
       <c r="H87" s="10" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="I87" s="10" t="s">
         <v>18</v>
@@ -5057,7 +5054,7 @@
     </row>
     <row r="88">
       <c r="A88" s="47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B88" s="8">
         <v>4.0</v>
@@ -5078,7 +5075,7 @@
         <v>27</v>
       </c>
       <c r="H88" s="10" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="I88" s="10" t="s">
         <v>20</v>
@@ -5106,7 +5103,7 @@
     </row>
     <row r="89">
       <c r="A89" s="47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B89" s="19" t="s">
         <v>22</v>
@@ -5127,7 +5124,7 @@
         <v>27</v>
       </c>
       <c r="H89" s="10" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="I89" s="10" t="s">
         <v>18</v>
@@ -5155,7 +5152,7 @@
     </row>
     <row r="90">
       <c r="A90" s="47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B90" s="8">
         <v>6.0</v>
@@ -5176,7 +5173,7 @@
         <v>27</v>
       </c>
       <c r="H90" s="10" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="I90" s="10" t="s">
         <v>16</v>
@@ -5204,7 +5201,7 @@
     </row>
     <row r="91">
       <c r="A91" s="47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B91" s="8">
         <v>7.0</v>
@@ -5225,7 +5222,7 @@
         <v>27</v>
       </c>
       <c r="H91" s="10" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="I91" s="10" t="s">
         <v>16</v>
@@ -5253,7 +5250,7 @@
     </row>
     <row r="92">
       <c r="A92" s="47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B92" s="8">
         <v>8.0</v>
@@ -5274,7 +5271,7 @@
         <v>27</v>
       </c>
       <c r="H92" s="32" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="I92" s="32" t="s">
         <v>18</v>
@@ -5302,7 +5299,7 @@
     </row>
     <row r="93">
       <c r="A93" s="46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B93" s="26">
         <v>2.0</v>
@@ -5323,7 +5320,7 @@
         <v>29</v>
       </c>
       <c r="H93" s="10" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="I93" s="28" t="s">
         <v>16</v>
@@ -5351,7 +5348,7 @@
     </row>
     <row r="94">
       <c r="A94" s="48" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B94" s="30">
         <v>3.0</v>
@@ -5372,7 +5369,7 @@
         <v>31</v>
       </c>
       <c r="H94" s="32" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="I94" s="32" t="s">
         <v>16</v>
@@ -29363,11 +29360,11 @@
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:G94">
       <formula1>"COVID,Flu,RSV,RSV; Flu; COVID,RSV; Flu; COVID; Overall"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H2:H94">
-      <formula1>"Baseline,^Baseline,Baseline + Comorbidities"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:F94">
       <formula1>"Specific,Sensitive"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H2:H94">
+      <formula1>"^Baseline,Baseline + Comorbidities"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I2:J94">
       <formula1>"Supplement,Yes,No"</formula1>
@@ -29409,10 +29406,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
@@ -29424,10 +29421,10 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2">
@@ -30041,7 +30038,7 @@
     </row>
     <row r="23">
       <c r="A23" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23" s="8">
         <v>1.0</v>
@@ -30070,7 +30067,7 @@
     </row>
     <row r="24">
       <c r="A24" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B24" s="8">
         <v>2.0</v>
@@ -30099,7 +30096,7 @@
     </row>
     <row r="25">
       <c r="A25" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B25" s="8">
         <v>3.0</v>
@@ -30128,7 +30125,7 @@
     </row>
     <row r="26">
       <c r="A26" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B26" s="8">
         <v>4.0</v>
@@ -30157,7 +30154,7 @@
     </row>
     <row r="27">
       <c r="A27" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B27" s="8">
         <v>5.0</v>
@@ -30186,7 +30183,7 @@
     </row>
     <row r="28">
       <c r="A28" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" s="8">
         <v>6.0</v>
@@ -30215,7 +30212,7 @@
     </row>
     <row r="29">
       <c r="A29" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B29" s="8">
         <v>7.0</v>
@@ -30244,7 +30241,7 @@
     </row>
     <row r="30">
       <c r="A30" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B30" s="8">
         <v>8.0</v>
@@ -30273,7 +30270,7 @@
     </row>
     <row r="31">
       <c r="A31" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B31" s="26">
         <v>1.0</v>
@@ -30302,7 +30299,7 @@
     </row>
     <row r="32">
       <c r="A32" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32" s="8">
         <v>2.0</v>
@@ -30331,7 +30328,7 @@
     </row>
     <row r="33">
       <c r="A33" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B33" s="8">
         <v>3.0</v>
@@ -30360,7 +30357,7 @@
     </row>
     <row r="34">
       <c r="A34" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B34" s="8">
         <v>4.0</v>
@@ -30389,7 +30386,7 @@
     </row>
     <row r="35">
       <c r="A35" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35" s="8">
         <v>5.0</v>
@@ -30418,7 +30415,7 @@
     </row>
     <row r="36">
       <c r="A36" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="8">
         <v>6.0</v>
@@ -30447,7 +30444,7 @@
     </row>
     <row r="37">
       <c r="A37" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B37" s="8">
         <v>7.0</v>
@@ -30476,7 +30473,7 @@
     </row>
     <row r="38">
       <c r="A38" s="30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B38" s="30">
         <v>8.0</v>
@@ -30505,7 +30502,7 @@
     </row>
     <row r="39">
       <c r="A39" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B39" s="8">
         <v>2.0</v>
@@ -30534,7 +30531,7 @@
     </row>
     <row r="40">
       <c r="A40" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B40" s="8">
         <v>3.0</v>
@@ -30563,7 +30560,7 @@
     </row>
     <row r="41">
       <c r="A41" s="50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B41" s="26">
         <v>1.0</v>
@@ -30592,7 +30589,7 @@
     </row>
     <row r="42">
       <c r="A42" s="51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B42" s="8">
         <v>2.0</v>
@@ -30621,7 +30618,7 @@
     </row>
     <row r="43">
       <c r="A43" s="51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43" s="8">
         <v>3.0</v>
@@ -30650,7 +30647,7 @@
     </row>
     <row r="44">
       <c r="A44" s="51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="8">
         <v>4.0</v>
@@ -30679,7 +30676,7 @@
     </row>
     <row r="45">
       <c r="A45" s="51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B45" s="8">
         <v>5.0</v>
@@ -30708,7 +30705,7 @@
     </row>
     <row r="46">
       <c r="A46" s="51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B46" s="8">
         <v>6.0</v>
@@ -30737,7 +30734,7 @@
     </row>
     <row r="47">
       <c r="A47" s="51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B47" s="8">
         <v>7.0</v>
@@ -30766,7 +30763,7 @@
     </row>
     <row r="48">
       <c r="A48" s="52" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B48" s="30">
         <v>8.0</v>
@@ -30795,7 +30792,7 @@
     </row>
     <row r="49">
       <c r="A49" s="51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B49" s="8">
         <v>1.0</v>
@@ -30824,7 +30821,7 @@
     </row>
     <row r="50">
       <c r="A50" s="51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B50" s="8">
         <v>2.0</v>
@@ -30853,7 +30850,7 @@
     </row>
     <row r="51">
       <c r="A51" s="51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B51" s="8">
         <v>3.0</v>
@@ -30882,7 +30879,7 @@
     </row>
     <row r="52">
       <c r="A52" s="51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B52" s="8">
         <v>4.0</v>
@@ -30911,7 +30908,7 @@
     </row>
     <row r="53">
       <c r="A53" s="51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B53" s="8">
         <v>5.0</v>
@@ -30940,7 +30937,7 @@
     </row>
     <row r="54">
       <c r="A54" s="51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B54" s="8">
         <v>6.0</v>
@@ -30969,7 +30966,7 @@
     </row>
     <row r="55">
       <c r="A55" s="51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B55" s="8">
         <v>7.0</v>
@@ -30998,7 +30995,7 @@
     </row>
     <row r="56">
       <c r="A56" s="51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B56" s="8">
         <v>8.0</v>
@@ -31027,7 +31024,7 @@
     </row>
     <row r="57">
       <c r="A57" s="50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B57" s="26">
         <v>2.0</v>
@@ -31056,7 +31053,7 @@
     </row>
     <row r="58">
       <c r="A58" s="52" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B58" s="30">
         <v>3.0</v>
@@ -31085,7 +31082,7 @@
     </row>
     <row r="59">
       <c r="A59" s="51" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B59" s="8">
         <v>1.0</v>
@@ -31114,7 +31111,7 @@
     </row>
     <row r="60">
       <c r="A60" s="51" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B60" s="8">
         <v>2.0</v>
@@ -31143,7 +31140,7 @@
     </row>
     <row r="61">
       <c r="A61" s="51" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B61" s="8">
         <v>3.0</v>
@@ -31172,7 +31169,7 @@
     </row>
     <row r="62">
       <c r="A62" s="51" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B62" s="8">
         <v>4.0</v>
@@ -31201,7 +31198,7 @@
     </row>
     <row r="63">
       <c r="A63" s="51" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B63" s="8">
         <v>5.0</v>
@@ -31230,7 +31227,7 @@
     </row>
     <row r="64">
       <c r="A64" s="51" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B64" s="8">
         <v>6.0</v>
@@ -31259,7 +31256,7 @@
     </row>
     <row r="65">
       <c r="A65" s="51" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B65" s="8">
         <v>7.0</v>
@@ -31288,7 +31285,7 @@
     </row>
     <row r="66">
       <c r="A66" s="51" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B66" s="8">
         <v>8.0</v>
@@ -31317,7 +31314,7 @@
     </row>
     <row r="67">
       <c r="A67" s="50" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B67" s="26">
         <v>1.0</v>
@@ -31346,7 +31343,7 @@
     </row>
     <row r="68">
       <c r="A68" s="51" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B68" s="8">
         <v>2.0</v>
@@ -31375,7 +31372,7 @@
     </row>
     <row r="69">
       <c r="A69" s="51" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B69" s="8">
         <v>3.0</v>
@@ -31404,7 +31401,7 @@
     </row>
     <row r="70">
       <c r="A70" s="51" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B70" s="8">
         <v>4.0</v>
@@ -31433,7 +31430,7 @@
     </row>
     <row r="71">
       <c r="A71" s="51" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B71" s="8">
         <v>5.0</v>
@@ -31462,7 +31459,7 @@
     </row>
     <row r="72">
       <c r="A72" s="51" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B72" s="8">
         <v>6.0</v>
@@ -31491,7 +31488,7 @@
     </row>
     <row r="73">
       <c r="A73" s="51" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B73" s="8">
         <v>7.0</v>
@@ -31520,7 +31517,7 @@
     </row>
     <row r="74">
       <c r="A74" s="52" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B74" s="30">
         <v>8.0</v>
@@ -31549,7 +31546,7 @@
     </row>
     <row r="75">
       <c r="A75" s="51" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B75" s="8">
         <v>2.0</v>
@@ -31578,7 +31575,7 @@
     </row>
     <row r="76">
       <c r="A76" s="51" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B76" s="8">
         <v>3.0</v>
@@ -31607,7 +31604,7 @@
     </row>
     <row r="77">
       <c r="A77" s="50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B77" s="26">
         <v>1.0</v>
@@ -31636,7 +31633,7 @@
     </row>
     <row r="78">
       <c r="A78" s="51" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B78" s="8">
         <v>2.0</v>
@@ -31665,7 +31662,7 @@
     </row>
     <row r="79">
       <c r="A79" s="51" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B79" s="8">
         <v>3.0</v>
@@ -31694,7 +31691,7 @@
     </row>
     <row r="80">
       <c r="A80" s="51" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B80" s="8">
         <v>4.0</v>
@@ -31723,7 +31720,7 @@
     </row>
     <row r="81">
       <c r="A81" s="51" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B81" s="8">
         <v>5.0</v>
@@ -31752,7 +31749,7 @@
     </row>
     <row r="82">
       <c r="A82" s="51" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B82" s="8">
         <v>6.0</v>
@@ -31781,7 +31778,7 @@
     </row>
     <row r="83">
       <c r="A83" s="51" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B83" s="8">
         <v>7.0</v>
@@ -31810,7 +31807,7 @@
     </row>
     <row r="84">
       <c r="A84" s="52" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B84" s="30">
         <v>8.0</v>
@@ -31839,7 +31836,7 @@
     </row>
     <row r="85">
       <c r="A85" s="51" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B85" s="8">
         <v>1.0</v>
@@ -31868,7 +31865,7 @@
     </row>
     <row r="86">
       <c r="A86" s="51" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B86" s="8">
         <v>2.0</v>
@@ -31897,7 +31894,7 @@
     </row>
     <row r="87">
       <c r="A87" s="51" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B87" s="8">
         <v>3.0</v>
@@ -31926,7 +31923,7 @@
     </row>
     <row r="88">
       <c r="A88" s="51" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B88" s="8">
         <v>4.0</v>
@@ -31955,7 +31952,7 @@
     </row>
     <row r="89">
       <c r="A89" s="51" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B89" s="8">
         <v>5.0</v>
@@ -31984,7 +31981,7 @@
     </row>
     <row r="90">
       <c r="A90" s="51" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B90" s="8">
         <v>6.0</v>
@@ -32013,7 +32010,7 @@
     </row>
     <row r="91">
       <c r="A91" s="51" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B91" s="8">
         <v>7.0</v>
@@ -32042,7 +32039,7 @@
     </row>
     <row r="92">
       <c r="A92" s="51" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B92" s="8">
         <v>8.0</v>
@@ -32071,7 +32068,7 @@
     </row>
     <row r="93">
       <c r="A93" s="50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B93" s="26">
         <v>2.0</v>
@@ -32100,7 +32097,7 @@
     </row>
     <row r="94">
       <c r="A94" s="52" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B94" s="30">
         <v>3.0</v>

--- a/docs/Analysis Types.xlsx
+++ b/docs/Analysis Types.xlsx
@@ -47966,258 +47966,258 @@
     </row>
   </sheetData>
   <mergeCells count="252">
+    <mergeCell ref="A41:A43"/>
     <mergeCell ref="B41:B43"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="D41:D43"/>
+    <mergeCell ref="E41:E43"/>
+    <mergeCell ref="F41:F43"/>
+    <mergeCell ref="G41:G43"/>
+    <mergeCell ref="A44:A46"/>
     <mergeCell ref="B44:B46"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="A41:A43"/>
     <mergeCell ref="C44:C46"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="D44:D46"/>
+    <mergeCell ref="E44:E46"/>
+    <mergeCell ref="F44:F46"/>
+    <mergeCell ref="G44:G46"/>
     <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="G56:G57"/>
     <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G60:G61"/>
     <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="G62:G63"/>
     <mergeCell ref="A65:A67"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="C86:C87"/>
-    <mergeCell ref="B86:B87"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="A84:A85"/>
     <mergeCell ref="B65:B67"/>
     <mergeCell ref="C65:C67"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="C71:C73"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="D65:D67"/>
+    <mergeCell ref="E65:E67"/>
+    <mergeCell ref="F65:F67"/>
+    <mergeCell ref="G65:G67"/>
     <mergeCell ref="A68:A70"/>
     <mergeCell ref="B68:B70"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="D68:D70"/>
+    <mergeCell ref="E68:E70"/>
+    <mergeCell ref="F68:F70"/>
+    <mergeCell ref="G68:G70"/>
+    <mergeCell ref="A71:A73"/>
     <mergeCell ref="B71:B73"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="D44:D46"/>
-    <mergeCell ref="D47:D49"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="D68:D70"/>
+    <mergeCell ref="C71:C73"/>
     <mergeCell ref="D71:D73"/>
+    <mergeCell ref="E71:E73"/>
+    <mergeCell ref="F71:F73"/>
+    <mergeCell ref="G71:G73"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="G74:G75"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="F76:F77"/>
+    <mergeCell ref="G76:G77"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="C78:C79"/>
     <mergeCell ref="D78:D79"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="F78:F79"/>
+    <mergeCell ref="G78:G79"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="C80:C81"/>
     <mergeCell ref="D80:D81"/>
-    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="F80:F81"/>
+    <mergeCell ref="G80:G81"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="C82:C83"/>
     <mergeCell ref="D82:D83"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="D65:D67"/>
-    <mergeCell ref="D86:D87"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="F82:F83"/>
+    <mergeCell ref="G82:G83"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
     <mergeCell ref="C14:C15"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="E14:E15"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E44:E46"/>
-    <mergeCell ref="E47:E49"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="G44:G46"/>
-    <mergeCell ref="G47:G49"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="F47:F49"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="F44:F46"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="D86:D87"/>
+    <mergeCell ref="E86:E87"/>
+    <mergeCell ref="F86:F87"/>
+    <mergeCell ref="G86:G87"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="F84:F85"/>
+    <mergeCell ref="G84:G85"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
     <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="D20:D21"/>
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="F20:F21"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="G20:G21"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
     <mergeCell ref="E22:E23"/>
     <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
     <mergeCell ref="E24:E25"/>
     <mergeCell ref="F24:F25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="G22:G23"/>
     <mergeCell ref="G24:G25"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
     <mergeCell ref="G27:G28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
     <mergeCell ref="G36:G37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
     <mergeCell ref="G38:G39"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="D47:D49"/>
+    <mergeCell ref="E47:E49"/>
+    <mergeCell ref="F47:F49"/>
+    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="A52:A53"/>
     <mergeCell ref="B52:B53"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="G62:G63"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="F71:F73"/>
-    <mergeCell ref="G71:G73"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="F41:F43"/>
-    <mergeCell ref="E41:E43"/>
+    <mergeCell ref="C52:C53"/>
     <mergeCell ref="D52:D53"/>
     <mergeCell ref="E52:E53"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="D41:D43"/>
+    <mergeCell ref="F52:F53"/>
     <mergeCell ref="G52:G53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="F54:F55"/>
     <mergeCell ref="G54:G55"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="G41:G43"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="E68:E70"/>
-    <mergeCell ref="E71:E73"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="G65:G67"/>
-    <mergeCell ref="F65:F67"/>
-    <mergeCell ref="E65:E67"/>
-    <mergeCell ref="G68:G70"/>
-    <mergeCell ref="F68:F70"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="F76:F77"/>
-    <mergeCell ref="F78:F79"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="G74:G75"/>
-    <mergeCell ref="G76:G77"/>
-    <mergeCell ref="G78:G79"/>
-    <mergeCell ref="G80:G81"/>
-    <mergeCell ref="G82:G83"/>
-    <mergeCell ref="G84:G85"/>
-    <mergeCell ref="G86:G87"/>
-    <mergeCell ref="F80:F81"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="F82:F83"/>
-    <mergeCell ref="E84:E85"/>
-    <mergeCell ref="F84:F85"/>
-    <mergeCell ref="E86:E87"/>
-    <mergeCell ref="F86:F87"/>
-    <mergeCell ref="E74:E75"/>
   </mergeCells>
   <dataValidations>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:F3 F6 F9 F12 F14 F16 F18 F20 F22 F24 F26:F27 F29 F31 F33:F34 F36 F38 F40:F41 F44 F47 F50 F52 F54 F56 F58 F60 F62 F64:F65 F68 F71 F74 F76 F78 F80 F82 F84 F86">
@@ -54836,223 +54836,223 @@
     </row>
   </sheetData>
   <mergeCells count="217">
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="A57:A61"/>
     <mergeCell ref="B57:B61"/>
     <mergeCell ref="C57:C61"/>
+    <mergeCell ref="D57:D61"/>
+    <mergeCell ref="E57:E61"/>
+    <mergeCell ref="F57:F61"/>
+    <mergeCell ref="G57:G61"/>
+    <mergeCell ref="A62:A66"/>
     <mergeCell ref="B62:B66"/>
     <mergeCell ref="C62:C66"/>
-    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="D62:D66"/>
+    <mergeCell ref="E62:E66"/>
+    <mergeCell ref="F62:F66"/>
+    <mergeCell ref="G62:G66"/>
     <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
     <mergeCell ref="A73:A74"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="A52:A56"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="A62:A66"/>
-    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="C78:C80"/>
+    <mergeCell ref="D78:D80"/>
+    <mergeCell ref="E78:E80"/>
+    <mergeCell ref="F78:F80"/>
+    <mergeCell ref="G78:G80"/>
+    <mergeCell ref="A79:A81"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="C81:C83"/>
+    <mergeCell ref="D81:D83"/>
+    <mergeCell ref="E81:E83"/>
+    <mergeCell ref="F81:F83"/>
+    <mergeCell ref="G81:G83"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="C84:C86"/>
+    <mergeCell ref="D84:D86"/>
+    <mergeCell ref="E84:E86"/>
+    <mergeCell ref="F84:F86"/>
+    <mergeCell ref="G84:G86"/>
+    <mergeCell ref="A85:A86"/>
     <mergeCell ref="A87:A88"/>
     <mergeCell ref="B87:B88"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="A89:A90"/>
     <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C87:C88"/>
     <mergeCell ref="C89:C90"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C52:C56"/>
-    <mergeCell ref="B52:B56"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="C78:C80"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="C81:C83"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="C84:C86"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="E3:E7"/>
+    <mergeCell ref="F3:F7"/>
+    <mergeCell ref="G3:G7"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="C8:C12"/>
+    <mergeCell ref="D8:D12"/>
+    <mergeCell ref="E8:E12"/>
+    <mergeCell ref="F8:F12"/>
+    <mergeCell ref="G8:G12"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="C13:C17"/>
+    <mergeCell ref="D13:D17"/>
+    <mergeCell ref="E13:E17"/>
+    <mergeCell ref="F13:F17"/>
+    <mergeCell ref="G13:G17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="G24:G26"/>
     <mergeCell ref="A91:A92"/>
     <mergeCell ref="B91:B92"/>
     <mergeCell ref="C91:C92"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="D78:D80"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="D81:D83"/>
-    <mergeCell ref="D84:D86"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="D52:D56"/>
-    <mergeCell ref="D57:D61"/>
-    <mergeCell ref="D62:D66"/>
     <mergeCell ref="D91:D92"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="A79:A81"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="G52:G56"/>
-    <mergeCell ref="G78:G80"/>
-    <mergeCell ref="F78:F80"/>
-    <mergeCell ref="E78:E80"/>
-    <mergeCell ref="F57:F61"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F52:F56"/>
-    <mergeCell ref="E52:E56"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
     <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
     <mergeCell ref="D29:D30"/>
     <mergeCell ref="E29:E30"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="D8:D12"/>
-    <mergeCell ref="E8:E12"/>
-    <mergeCell ref="E13:E17"/>
-    <mergeCell ref="D13:D17"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
     <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
     <mergeCell ref="D45:D46"/>
     <mergeCell ref="E45:E46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="C8:C12"/>
-    <mergeCell ref="C13:C17"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="E3:E7"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="G24:G26"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
     <mergeCell ref="F45:F46"/>
     <mergeCell ref="G45:G46"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="F3:F7"/>
-    <mergeCell ref="G3:G7"/>
-    <mergeCell ref="F8:F12"/>
-    <mergeCell ref="G8:G12"/>
-    <mergeCell ref="F13:F17"/>
-    <mergeCell ref="G13:G17"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="E81:E83"/>
-    <mergeCell ref="E84:E86"/>
-    <mergeCell ref="G84:G86"/>
-    <mergeCell ref="F84:F86"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="G81:G83"/>
-    <mergeCell ref="F81:F83"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
     <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
     <mergeCell ref="D47:D48"/>
     <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
     <mergeCell ref="D49:D50"/>
     <mergeCell ref="E49:E50"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="E57:E61"/>
-    <mergeCell ref="G57:G61"/>
-    <mergeCell ref="E62:E66"/>
-    <mergeCell ref="F62:F66"/>
-    <mergeCell ref="G62:G66"/>
-    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="A52:A56"/>
+    <mergeCell ref="B52:B56"/>
+    <mergeCell ref="C52:C56"/>
+    <mergeCell ref="D52:D56"/>
+    <mergeCell ref="E52:E56"/>
+    <mergeCell ref="F52:F56"/>
+    <mergeCell ref="G52:G56"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="G69:G70"/>
   </mergeCells>
   <dataValidations>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:F3 F8 F13 F18 F21 F24 F27 F29 F31 F33 F35 F37:F38 F40 F42 F44:F45 F47 F49 F51:F52 F57 F62 F67 F69 F71 F73 F75 F77:F78 F81 F84 F87 F89 F91">

--- a/docs/Analysis Types.xlsx
+++ b/docs/Analysis Types.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2148" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2170" uniqueCount="67">
   <si>
     <t>Cohort</t>
   </si>
@@ -503,9 +503,6 @@
       </left>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF999999"/>
-      </left>
       <top style="thin">
         <color rgb="FF999999"/>
       </top>
@@ -514,21 +511,15 @@
       <left style="thin">
         <color rgb="FF999999"/>
       </left>
-      <right style="thin">
-        <color rgb="FF999999"/>
-      </right>
       <top style="thin">
         <color rgb="FF999999"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF999999"/>
-      </bottom>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="106">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -746,19 +737,37 @@
       <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="27" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="28" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="28" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="27" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf borderId="21" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="25" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -766,7 +775,37 @@
     <xf borderId="21" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="28" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="22" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="22" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="22" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="21" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="6" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
   </cellXfs>
@@ -43098,89 +43137,103 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="64"/>
-      <c r="B66" s="64"/>
-      <c r="C66" s="64"/>
-      <c r="D66" s="64"/>
-      <c r="E66" s="64"/>
-      <c r="F66" s="64"/>
-      <c r="G66" s="64"/>
-      <c r="H66" s="61" t="s">
+      <c r="A66" s="65"/>
+      <c r="B66" s="65"/>
+      <c r="C66" s="65"/>
+      <c r="D66" s="65"/>
+      <c r="E66" s="65"/>
+      <c r="F66" s="65"/>
+      <c r="G66" s="65"/>
+      <c r="H66" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="I66" s="62" t="s">
+      <c r="I66" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="J66" s="63" t="s">
+      <c r="J66" s="57" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="65"/>
-      <c r="B67" s="65"/>
-      <c r="C67" s="65"/>
-      <c r="D67" s="65"/>
-      <c r="E67" s="65"/>
-      <c r="F67" s="65"/>
-      <c r="G67" s="65"/>
-      <c r="H67" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="I67" s="56" t="s">
-        <v>57</v>
-      </c>
-      <c r="J67" s="57" t="s">
-        <v>52</v>
+      <c r="A67" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="B67" s="59">
+        <v>3.0</v>
+      </c>
+      <c r="C67" s="60">
+        <v>43344.0</v>
+      </c>
+      <c r="D67" s="60">
+        <v>43708.0</v>
+      </c>
+      <c r="E67" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="F67" s="59" t="s">
+        <v>48</v>
+      </c>
+      <c r="G67" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="H67" s="61" t="s">
+        <v>50</v>
+      </c>
+      <c r="I67" s="74" t="s">
+        <v>53</v>
+      </c>
+      <c r="J67" s="75" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="81" t="s">
-        <v>37</v>
-      </c>
-      <c r="B68" s="59">
-        <v>3.0</v>
-      </c>
-      <c r="C68" s="60">
-        <v>43344.0</v>
-      </c>
-      <c r="D68" s="60">
-        <v>43708.0</v>
-      </c>
-      <c r="E68" s="59" t="s">
-        <v>12</v>
-      </c>
-      <c r="F68" s="59" t="s">
-        <v>48</v>
-      </c>
-      <c r="G68" s="59" t="s">
-        <v>27</v>
-      </c>
+      <c r="A68" s="65"/>
+      <c r="B68" s="65"/>
+      <c r="C68" s="65"/>
+      <c r="D68" s="65"/>
+      <c r="E68" s="65"/>
+      <c r="F68" s="65"/>
+      <c r="G68" s="65"/>
       <c r="H68" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="I68" s="74" t="s">
+      <c r="I68" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="J68" s="63" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="B69" s="59">
+        <v>5.0</v>
+      </c>
+      <c r="C69" s="60">
+        <v>44075.0</v>
+      </c>
+      <c r="D69" s="60">
+        <v>44439.0</v>
+      </c>
+      <c r="E69" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="F69" s="59" t="s">
+        <v>48</v>
+      </c>
+      <c r="G69" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="H69" s="82" t="s">
+        <v>50</v>
+      </c>
+      <c r="I69" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="J68" s="75" t="s">
+      <c r="J69" s="84" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="64"/>
-      <c r="B69" s="64"/>
-      <c r="C69" s="64"/>
-      <c r="D69" s="64"/>
-      <c r="E69" s="64"/>
-      <c r="F69" s="64"/>
-      <c r="G69" s="64"/>
-      <c r="H69" s="61" t="s">
-        <v>50</v>
-      </c>
-      <c r="I69" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="J69" s="63" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="70">
@@ -43191,14 +43244,14 @@
       <c r="E70" s="65"/>
       <c r="F70" s="65"/>
       <c r="G70" s="65"/>
-      <c r="H70" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="I70" s="56" t="s">
-        <v>57</v>
-      </c>
-      <c r="J70" s="57" t="s">
-        <v>52</v>
+      <c r="H70" s="61" t="s">
+        <v>50</v>
+      </c>
+      <c r="I70" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="J70" s="63" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="71">
@@ -43206,418 +43259,365 @@
         <v>37</v>
       </c>
       <c r="B71" s="59">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="C71" s="60">
-        <v>44075.0</v>
+        <v>42979.0</v>
       </c>
       <c r="D71" s="60">
-        <v>44439.0</v>
+        <v>43343.0</v>
       </c>
       <c r="E71" s="59" t="s">
         <v>12</v>
       </c>
       <c r="F71" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="G71" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="H71" s="82" t="s">
+        <v>50</v>
+      </c>
+      <c r="I71" s="85" t="s">
+        <v>58</v>
+      </c>
+      <c r="J71" s="86" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="65"/>
+      <c r="B72" s="65"/>
+      <c r="C72" s="65"/>
+      <c r="D72" s="65"/>
+      <c r="E72" s="65"/>
+      <c r="F72" s="65"/>
+      <c r="G72" s="65"/>
+      <c r="H72" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="I72" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="J72" s="57" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="B73" s="59">
+        <v>3.0</v>
+      </c>
+      <c r="C73" s="60">
+        <v>43344.0</v>
+      </c>
+      <c r="D73" s="60">
+        <v>43708.0</v>
+      </c>
+      <c r="E73" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="F73" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="G73" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="H73" s="61" t="s">
+        <v>50</v>
+      </c>
+      <c r="I73" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="J73" s="63" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="65"/>
+      <c r="B74" s="65"/>
+      <c r="C74" s="65"/>
+      <c r="D74" s="65"/>
+      <c r="E74" s="65"/>
+      <c r="F74" s="65"/>
+      <c r="G74" s="65"/>
+      <c r="H74" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="I74" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="J74" s="57" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="B75" s="59">
+        <v>5.0</v>
+      </c>
+      <c r="C75" s="60">
+        <v>44075.0</v>
+      </c>
+      <c r="D75" s="60">
+        <v>44439.0</v>
+      </c>
+      <c r="E75" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="F75" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="G75" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="H75" s="61" t="s">
+        <v>50</v>
+      </c>
+      <c r="I75" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="J75" s="63" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="65"/>
+      <c r="B76" s="65"/>
+      <c r="C76" s="65"/>
+      <c r="D76" s="65"/>
+      <c r="E76" s="65"/>
+      <c r="F76" s="65"/>
+      <c r="G76" s="65"/>
+      <c r="H76" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="I76" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="J76" s="57" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="B77" s="67">
+        <v>2.0</v>
+      </c>
+      <c r="C77" s="68">
+        <v>42979.0</v>
+      </c>
+      <c r="D77" s="68">
+        <v>43343.0</v>
+      </c>
+      <c r="E77" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="F77" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="G77" s="63" t="s">
+        <v>27</v>
+      </c>
+      <c r="H77" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="I77" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="J77" s="63" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="65"/>
+      <c r="B78" s="65"/>
+      <c r="C78" s="65"/>
+      <c r="D78" s="65"/>
+      <c r="E78" s="65"/>
+      <c r="F78" s="65"/>
+      <c r="G78" s="65"/>
+      <c r="H78" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="I78" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="J78" s="57" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="B79" s="67">
+        <v>3.0</v>
+      </c>
+      <c r="C79" s="68">
+        <v>43344.0</v>
+      </c>
+      <c r="D79" s="68">
+        <v>43708.0</v>
+      </c>
+      <c r="E79" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="F79" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="G79" s="63" t="s">
+        <v>27</v>
+      </c>
+      <c r="H79" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="I79" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="J79" s="63" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="65"/>
+      <c r="B80" s="65"/>
+      <c r="C80" s="65"/>
+      <c r="D80" s="65"/>
+      <c r="E80" s="65"/>
+      <c r="F80" s="65"/>
+      <c r="G80" s="65"/>
+      <c r="H80" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="I80" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="J80" s="57" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="B81" s="67">
+        <v>5.0</v>
+      </c>
+      <c r="C81" s="68">
+        <v>44075.0</v>
+      </c>
+      <c r="D81" s="68">
+        <v>44439.0</v>
+      </c>
+      <c r="E81" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="F81" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="G81" s="63" t="s">
+        <v>27</v>
+      </c>
+      <c r="H81" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="I81" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="J81" s="63" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="65"/>
+      <c r="B82" s="65"/>
+      <c r="C82" s="65"/>
+      <c r="D82" s="65"/>
+      <c r="E82" s="65"/>
+      <c r="F82" s="65"/>
+      <c r="G82" s="65"/>
+      <c r="H82" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="I82" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="J82" s="57" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="B83" s="59">
+        <v>8.0</v>
+      </c>
+      <c r="C83" s="60">
+        <v>45170.0</v>
+      </c>
+      <c r="D83" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="E83" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="F83" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="G71" s="59" t="s">
+      <c r="G83" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="H71" s="61" t="s">
-        <v>50</v>
-      </c>
-      <c r="I71" s="74" t="s">
+      <c r="H83" s="61" t="s">
+        <v>20</v>
+      </c>
+      <c r="I83" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="J71" s="75" t="s">
+      <c r="J83" s="75" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="64"/>
-      <c r="B72" s="64"/>
-      <c r="C72" s="64"/>
-      <c r="D72" s="64"/>
-      <c r="E72" s="64"/>
-      <c r="F72" s="64"/>
-      <c r="G72" s="64"/>
-      <c r="H72" s="61" t="s">
-        <v>50</v>
-      </c>
-      <c r="I72" s="62" t="s">
+    <row r="84">
+      <c r="A84" s="65"/>
+      <c r="B84" s="65"/>
+      <c r="C84" s="65"/>
+      <c r="D84" s="65"/>
+      <c r="E84" s="65"/>
+      <c r="F84" s="65"/>
+      <c r="G84" s="65"/>
+      <c r="H84" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="I84" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="J72" s="63" t="s">
+      <c r="J84" s="57" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="65"/>
-      <c r="B73" s="65"/>
-      <c r="C73" s="65"/>
-      <c r="D73" s="65"/>
-      <c r="E73" s="65"/>
-      <c r="F73" s="65"/>
-      <c r="G73" s="65"/>
-      <c r="H73" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="I73" s="56" t="s">
-        <v>57</v>
-      </c>
-      <c r="J73" s="57" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="81" t="s">
-        <v>37</v>
-      </c>
-      <c r="B74" s="59">
-        <v>2.0</v>
-      </c>
-      <c r="C74" s="60">
-        <v>42979.0</v>
-      </c>
-      <c r="D74" s="60">
-        <v>43343.0</v>
-      </c>
-      <c r="E74" s="59" t="s">
-        <v>12</v>
-      </c>
-      <c r="F74" s="59" t="s">
-        <v>13</v>
-      </c>
-      <c r="G74" s="59" t="s">
-        <v>14</v>
-      </c>
-      <c r="H74" s="61" t="s">
-        <v>50</v>
-      </c>
-      <c r="I74" s="62" t="s">
-        <v>58</v>
-      </c>
-      <c r="J74" s="63" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="65"/>
-      <c r="B75" s="65"/>
-      <c r="C75" s="65"/>
-      <c r="D75" s="65"/>
-      <c r="E75" s="65"/>
-      <c r="F75" s="65"/>
-      <c r="G75" s="65"/>
-      <c r="H75" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="I75" s="56" t="s">
-        <v>60</v>
-      </c>
-      <c r="J75" s="57" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="81" t="s">
-        <v>37</v>
-      </c>
-      <c r="B76" s="59">
-        <v>3.0</v>
-      </c>
-      <c r="C76" s="60">
-        <v>43344.0</v>
-      </c>
-      <c r="D76" s="60">
-        <v>43708.0</v>
-      </c>
-      <c r="E76" s="59" t="s">
-        <v>12</v>
-      </c>
-      <c r="F76" s="59" t="s">
-        <v>13</v>
-      </c>
-      <c r="G76" s="59" t="s">
-        <v>14</v>
-      </c>
-      <c r="H76" s="61" t="s">
-        <v>50</v>
-      </c>
-      <c r="I76" s="62" t="s">
-        <v>58</v>
-      </c>
-      <c r="J76" s="63" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="65"/>
-      <c r="B77" s="65"/>
-      <c r="C77" s="65"/>
-      <c r="D77" s="65"/>
-      <c r="E77" s="65"/>
-      <c r="F77" s="65"/>
-      <c r="G77" s="65"/>
-      <c r="H77" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="I77" s="56" t="s">
-        <v>60</v>
-      </c>
-      <c r="J77" s="57" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="81" t="s">
-        <v>37</v>
-      </c>
-      <c r="B78" s="59">
-        <v>5.0</v>
-      </c>
-      <c r="C78" s="60">
-        <v>44075.0</v>
-      </c>
-      <c r="D78" s="60">
-        <v>44439.0</v>
-      </c>
-      <c r="E78" s="59" t="s">
-        <v>12</v>
-      </c>
-      <c r="F78" s="59" t="s">
-        <v>13</v>
-      </c>
-      <c r="G78" s="59" t="s">
-        <v>14</v>
-      </c>
-      <c r="H78" s="61" t="s">
-        <v>50</v>
-      </c>
-      <c r="I78" s="62" t="s">
-        <v>58</v>
-      </c>
-      <c r="J78" s="63" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="65"/>
-      <c r="B79" s="65"/>
-      <c r="C79" s="65"/>
-      <c r="D79" s="65"/>
-      <c r="E79" s="65"/>
-      <c r="F79" s="65"/>
-      <c r="G79" s="65"/>
-      <c r="H79" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="I79" s="56" t="s">
-        <v>60</v>
-      </c>
-      <c r="J79" s="57" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="81" t="s">
-        <v>37</v>
-      </c>
-      <c r="B80" s="67">
-        <v>2.0</v>
-      </c>
-      <c r="C80" s="68">
-        <v>42979.0</v>
-      </c>
-      <c r="D80" s="68">
-        <v>43343.0</v>
-      </c>
-      <c r="E80" s="69" t="s">
-        <v>12</v>
-      </c>
-      <c r="F80" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="G80" s="63" t="s">
-        <v>27</v>
-      </c>
-      <c r="H80" s="70" t="s">
-        <v>50</v>
-      </c>
-      <c r="I80" s="62" t="s">
-        <v>58</v>
-      </c>
-      <c r="J80" s="63" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="65"/>
-      <c r="B81" s="65"/>
-      <c r="C81" s="65"/>
-      <c r="D81" s="65"/>
-      <c r="E81" s="65"/>
-      <c r="F81" s="65"/>
-      <c r="G81" s="65"/>
-      <c r="H81" s="71" t="s">
-        <v>20</v>
-      </c>
-      <c r="I81" s="56" t="s">
-        <v>60</v>
-      </c>
-      <c r="J81" s="57" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="81" t="s">
-        <v>37</v>
-      </c>
-      <c r="B82" s="67">
-        <v>3.0</v>
-      </c>
-      <c r="C82" s="68">
-        <v>43344.0</v>
-      </c>
-      <c r="D82" s="68">
-        <v>43708.0</v>
-      </c>
-      <c r="E82" s="69" t="s">
-        <v>12</v>
-      </c>
-      <c r="F82" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="G82" s="63" t="s">
-        <v>27</v>
-      </c>
-      <c r="H82" s="70" t="s">
-        <v>50</v>
-      </c>
-      <c r="I82" s="62" t="s">
-        <v>58</v>
-      </c>
-      <c r="J82" s="63" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="65"/>
-      <c r="B83" s="65"/>
-      <c r="C83" s="65"/>
-      <c r="D83" s="65"/>
-      <c r="E83" s="65"/>
-      <c r="F83" s="65"/>
-      <c r="G83" s="65"/>
-      <c r="H83" s="71" t="s">
-        <v>20</v>
-      </c>
-      <c r="I83" s="56" t="s">
-        <v>60</v>
-      </c>
-      <c r="J83" s="57" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="81" t="s">
-        <v>37</v>
-      </c>
-      <c r="B84" s="67">
-        <v>5.0</v>
-      </c>
-      <c r="C84" s="68">
-        <v>44075.0</v>
-      </c>
-      <c r="D84" s="68">
-        <v>44439.0</v>
-      </c>
-      <c r="E84" s="69" t="s">
-        <v>12</v>
-      </c>
-      <c r="F84" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="G84" s="63" t="s">
-        <v>27</v>
-      </c>
-      <c r="H84" s="70" t="s">
-        <v>50</v>
-      </c>
-      <c r="I84" s="62" t="s">
-        <v>58</v>
-      </c>
-      <c r="J84" s="63" t="s">
-        <v>59</v>
-      </c>
-    </row>
     <row r="85">
-      <c r="A85" s="65"/>
-      <c r="B85" s="65"/>
-      <c r="C85" s="65"/>
-      <c r="D85" s="65"/>
-      <c r="E85" s="65"/>
-      <c r="F85" s="65"/>
-      <c r="G85" s="65"/>
-      <c r="H85" s="71" t="s">
-        <v>20</v>
-      </c>
-      <c r="I85" s="56" t="s">
-        <v>60</v>
-      </c>
-      <c r="J85" s="57" t="s">
-        <v>59</v>
-      </c>
+      <c r="H85" s="70"/>
+      <c r="I85" s="70"/>
+      <c r="J85" s="70"/>
     </row>
     <row r="86">
-      <c r="A86" s="81" t="s">
-        <v>37</v>
-      </c>
-      <c r="B86" s="59">
-        <v>8.0</v>
-      </c>
-      <c r="C86" s="60">
-        <v>45170.0</v>
-      </c>
-      <c r="D86" s="59" t="s">
-        <v>25</v>
-      </c>
-      <c r="E86" s="59" t="s">
-        <v>12</v>
-      </c>
-      <c r="F86" s="59" t="s">
-        <v>48</v>
-      </c>
-      <c r="G86" s="59" t="s">
-        <v>27</v>
-      </c>
-      <c r="H86" s="61" t="s">
-        <v>20</v>
-      </c>
-      <c r="I86" s="74" t="s">
-        <v>53</v>
-      </c>
-      <c r="J86" s="75" t="s">
-        <v>54</v>
-      </c>
+      <c r="H86" s="70"/>
+      <c r="I86" s="70"/>
+      <c r="J86" s="70"/>
     </row>
     <row r="87">
-      <c r="A87" s="65"/>
-      <c r="B87" s="65"/>
-      <c r="C87" s="65"/>
-      <c r="D87" s="65"/>
-      <c r="E87" s="65"/>
-      <c r="F87" s="65"/>
-      <c r="G87" s="65"/>
-      <c r="H87" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="I87" s="56" t="s">
-        <v>55</v>
-      </c>
-      <c r="J87" s="57" t="s">
-        <v>56</v>
-      </c>
+      <c r="H87" s="70"/>
+      <c r="I87" s="70"/>
+      <c r="J87" s="70"/>
     </row>
     <row r="88">
       <c r="H88" s="70"/>
@@ -47948,21 +47948,6 @@
       <c r="H953" s="70"/>
       <c r="I953" s="70"/>
       <c r="J953" s="70"/>
-    </row>
-    <row r="954">
-      <c r="H954" s="70"/>
-      <c r="I954" s="70"/>
-      <c r="J954" s="70"/>
-    </row>
-    <row r="955">
-      <c r="H955" s="70"/>
-      <c r="I955" s="70"/>
-      <c r="J955" s="70"/>
-    </row>
-    <row r="956">
-      <c r="H956" s="70"/>
-      <c r="I956" s="70"/>
-      <c r="J956" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="252">
@@ -48008,62 +47993,62 @@
     <mergeCell ref="E62:E63"/>
     <mergeCell ref="F62:F63"/>
     <mergeCell ref="G62:G63"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="D65:D67"/>
-    <mergeCell ref="E65:E67"/>
-    <mergeCell ref="F65:F67"/>
-    <mergeCell ref="G65:G67"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="D68:D70"/>
-    <mergeCell ref="E68:E70"/>
-    <mergeCell ref="F68:F70"/>
-    <mergeCell ref="G68:G70"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="C71:C73"/>
-    <mergeCell ref="D71:D73"/>
-    <mergeCell ref="E71:E73"/>
-    <mergeCell ref="F71:F73"/>
-    <mergeCell ref="G71:G73"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="G74:G75"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="F76:F77"/>
-    <mergeCell ref="G76:G77"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="F78:F79"/>
-    <mergeCell ref="G78:G79"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="D80:D81"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="F80:F81"/>
-    <mergeCell ref="G80:G81"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="F82:F83"/>
-    <mergeCell ref="G82:G83"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="C3:C5"/>
@@ -48106,20 +48091,20 @@
     <mergeCell ref="E16:E17"/>
     <mergeCell ref="F16:F17"/>
     <mergeCell ref="G16:G17"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="B86:B87"/>
-    <mergeCell ref="C86:C87"/>
-    <mergeCell ref="D86:D87"/>
-    <mergeCell ref="E86:E87"/>
-    <mergeCell ref="F86:F87"/>
-    <mergeCell ref="G86:G87"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="E84:E85"/>
-    <mergeCell ref="F84:F85"/>
-    <mergeCell ref="G84:G85"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="C18:C19"/>
@@ -48220,16 +48205,16 @@
     <mergeCell ref="G54:G55"/>
   </mergeCells>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:F3 F6 F9 F12 F14 F16 F18 F20 F22 F24 F26:F27 F29 F31 F33:F34 F36 F38 F40:F41 F44 F47 F50 F52 F54 F56 F58 F60 F62 F64:F65 F68 F71 F74 F76 F78 F80 F82 F84 F86">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:F3 F6 F9 F12 F14 F16 F18 F20 F22 F24 F26:F27 F29 F31 F33:F34 F36 F38 F40:F41 F44 F47 F50 F52 F54 F56 F58 F60 F62 F64:F65 F67 F69 F71 F73 F75 F77 F79 F81 F83">
       <formula1>"Specific,Sensitive,Both"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H2:H87">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H2:H84">
       <formula1>"Main,Supplement"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:G3 G6 G9 G12 G14 G16 G18 G20 G22 G24 G26:G27 G29 G31 G33:G34 G36 G38 G40:G41 G44 G47 G50 G52 G54 G56 G58 G60 G62 G64:G65 G68 G71 G74 G76 G78 G80 G82 G84 G86">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:G3 G6 G9 G12 G14 G16 G18 G20 G22 G24 G26:G27 G29 G31 G33:G34 G36 G38 G40:G41 G44 G47 G50 G52 G54 G56 G58 G60 G62 G64:G65 G67 G69 G71 G73 G75 G77 G79 G81 G83">
       <formula1>"COVID,Flu,RSV,RSV; Flu; COVID,RSV; Flu; COVID; Overall,NA"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E3 E6 E9 E12 E14 E16 E18 E20 E22 E24 E26:E27 E29 E31 E33:E34 E36 E38 E40:E41 E44 E47 E50 E52 E54 E56 E58 E60 E62 E64:E65 E68 E71 E74 E76 E78 E80 E82 E84 E86">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E3 E6 E9 E12 E14 E16 E18 E20 E22 E24 E26:E27 E29 E31 E33:E34 E36 E38 E40:E41 E44 E47 E50 E52 E54 E56 E58 E60 E62 E64:E65 E67 E69 E71 E73 E75 E77 E79 E81 E83">
       <formula1>"Primary,Secondary,Sensitivity"</formula1>
     </dataValidation>
   </dataValidations>
@@ -48291,31 +48276,31 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="88" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="89" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="54" t="s">
+      <c r="D2" s="89" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="54" t="s">
+      <c r="E2" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="54" t="s">
+      <c r="F2" s="89" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="54" t="s">
+      <c r="G2" s="89" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="55" t="s">
+      <c r="H2" s="90" t="s">
         <v>50</v>
       </c>
-      <c r="I2" s="62" t="s">
+      <c r="I2" s="91" t="s">
         <v>51</v>
       </c>
       <c r="J2" s="63" t="s">
@@ -48326,68 +48311,96 @@
       <c r="A3" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="59">
-        <v>2.0</v>
-      </c>
-      <c r="C3" s="60">
-        <v>42979.0</v>
-      </c>
-      <c r="D3" s="60">
-        <v>43343.0</v>
+      <c r="B3" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="59" t="s">
+        <v>47</v>
       </c>
       <c r="E3" s="59" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="59" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="G3" s="59" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="H3" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="I3" s="82" t="s">
+      <c r="I3" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" s="63" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="92" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" s="91" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" s="63" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="59">
+        <v>2.0</v>
+      </c>
+      <c r="C5" s="60">
+        <v>42979.0</v>
+      </c>
+      <c r="D5" s="60">
+        <v>43343.0</v>
+      </c>
+      <c r="E5" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="61" t="s">
+        <v>50</v>
+      </c>
+      <c r="I5" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="J3" s="83" t="s">
+      <c r="J5" s="86" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="64"/>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="61" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="62" t="s">
-        <v>63</v>
-      </c>
-      <c r="J4" s="63" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="64"/>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="61" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="62" t="s">
-        <v>64</v>
-      </c>
-      <c r="J5" s="63" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="6">
@@ -48399,99 +48412,99 @@
       <c r="F6" s="64"/>
       <c r="G6" s="64"/>
       <c r="H6" s="61" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="I6" s="62" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="J6" s="63" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="65"/>
-      <c r="B7" s="65"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="I7" s="56" t="s">
-        <v>60</v>
-      </c>
-      <c r="J7" s="57" t="s">
-        <v>59</v>
+      <c r="A7" s="64"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="61" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="J7" s="63" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="59">
-        <v>3.0</v>
-      </c>
-      <c r="C8" s="60">
-        <v>43344.0</v>
-      </c>
-      <c r="D8" s="60">
-        <v>43708.0</v>
-      </c>
-      <c r="E8" s="59" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="59" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="59" t="s">
-        <v>14</v>
-      </c>
+      <c r="A8" s="64"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
       <c r="H8" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="I8" s="82" t="s">
+      <c r="I8" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" s="63" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="65"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="J9" s="57" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="59">
+        <v>3.0</v>
+      </c>
+      <c r="C10" s="60">
+        <v>43344.0</v>
+      </c>
+      <c r="D10" s="60">
+        <v>43708.0</v>
+      </c>
+      <c r="E10" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="61" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="J8" s="83" t="s">
+      <c r="J10" s="86" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="64"/>
-      <c r="B9" s="64"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="61" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="62" t="s">
-        <v>63</v>
-      </c>
-      <c r="J9" s="63" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="64"/>
-      <c r="B10" s="64"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="61" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" s="62" t="s">
-        <v>64</v>
-      </c>
-      <c r="J10" s="63" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="11">
@@ -48503,99 +48516,99 @@
       <c r="F11" s="64"/>
       <c r="G11" s="64"/>
       <c r="H11" s="61" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="I11" s="62" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="J11" s="63" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="65"/>
-      <c r="B12" s="65"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="I12" s="56" t="s">
-        <v>60</v>
-      </c>
-      <c r="J12" s="57" t="s">
-        <v>59</v>
+      <c r="A12" s="64"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="61" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="J12" s="63" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="59">
-        <v>5.0</v>
-      </c>
-      <c r="C13" s="60">
-        <v>44075.0</v>
-      </c>
-      <c r="D13" s="60">
-        <v>44439.0</v>
-      </c>
-      <c r="E13" s="59" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="59" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="59" t="s">
-        <v>14</v>
-      </c>
+      <c r="A13" s="64"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
       <c r="H13" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="I13" s="82" t="s">
+      <c r="I13" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="J13" s="63" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="65"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="I14" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="J14" s="57" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="59">
+        <v>5.0</v>
+      </c>
+      <c r="C15" s="60">
+        <v>44075.0</v>
+      </c>
+      <c r="D15" s="60">
+        <v>44439.0</v>
+      </c>
+      <c r="E15" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="61" t="s">
+        <v>50</v>
+      </c>
+      <c r="I15" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="J13" s="83" t="s">
+      <c r="J15" s="86" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="64"/>
-      <c r="B14" s="64"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="61" t="s">
-        <v>20</v>
-      </c>
-      <c r="I14" s="62" t="s">
-        <v>63</v>
-      </c>
-      <c r="J14" s="63" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="64"/>
-      <c r="B15" s="64"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="61" t="s">
-        <v>20</v>
-      </c>
-      <c r="I15" s="62" t="s">
-        <v>64</v>
-      </c>
-      <c r="J15" s="63" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="16">
@@ -48607,266 +48620,252 @@
       <c r="F16" s="64"/>
       <c r="G16" s="64"/>
       <c r="H16" s="61" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" s="62" t="s">
+        <v>63</v>
+      </c>
+      <c r="J16" s="63" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="64"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="61" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="J17" s="63" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="64"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="I16" s="62" t="s">
+      <c r="I18" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="J16" s="63" t="s">
+      <c r="J18" s="63" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="65"/>
-      <c r="B17" s="65"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="65"/>
-      <c r="H17" s="55" t="s">
+    <row r="19">
+      <c r="A19" s="65"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="I17" s="56" t="s">
+      <c r="I19" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="J17" s="57" t="s">
+      <c r="J19" s="57" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="58" t="s">
+    <row r="20">
+      <c r="A20" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="59">
+      <c r="B20" s="59">
         <v>2.0</v>
       </c>
-      <c r="C18" s="60">
+      <c r="C20" s="60">
         <v>42979.0</v>
       </c>
-      <c r="D18" s="60">
+      <c r="D20" s="60">
         <v>43343.0</v>
       </c>
-      <c r="E18" s="59" t="s">
+      <c r="E20" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="59" t="s">
+      <c r="F20" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="G18" s="59" t="s">
+      <c r="G20" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="H18" s="84" t="s">
+      <c r="H20" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="I18" s="85" t="s">
+      <c r="I20" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="J18" s="86" t="s">
+      <c r="J20" s="84" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="64"/>
-      <c r="B19" s="64"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="84" t="s">
+    <row r="21">
+      <c r="A21" s="64"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="I19" s="74" t="s">
+      <c r="I21" s="74" t="s">
         <v>58</v>
       </c>
-      <c r="J19" s="75" t="s">
+      <c r="J21" s="75" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="65"/>
-      <c r="B20" s="65"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="71" t="s">
+    <row r="22">
+      <c r="A22" s="65"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="I20" s="87" t="s">
+      <c r="I22" s="93" t="s">
         <v>60</v>
       </c>
-      <c r="J20" s="88" t="s">
+      <c r="J22" s="94" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="58" t="s">
+    <row r="23">
+      <c r="A23" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="59">
+      <c r="B23" s="59">
         <v>3.0</v>
       </c>
-      <c r="C21" s="60">
+      <c r="C23" s="60">
         <v>43344.0</v>
       </c>
-      <c r="D21" s="60">
+      <c r="D23" s="60">
         <v>43708.0</v>
       </c>
-      <c r="E21" s="59" t="s">
+      <c r="E23" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="F21" s="59" t="s">
+      <c r="F23" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="G21" s="59" t="s">
+      <c r="G23" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="H21" s="84" t="s">
+      <c r="H23" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="I21" s="85" t="s">
+      <c r="I23" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="J21" s="86" t="s">
+      <c r="J23" s="84" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="64"/>
-      <c r="B22" s="64"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="84" t="s">
+    <row r="24">
+      <c r="A24" s="64"/>
+      <c r="B24" s="64"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="I22" s="74" t="s">
+      <c r="I24" s="74" t="s">
         <v>58</v>
       </c>
-      <c r="J22" s="75" t="s">
+      <c r="J24" s="75" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="65"/>
-      <c r="B23" s="65"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="65"/>
-      <c r="H23" s="71" t="s">
+    <row r="25">
+      <c r="A25" s="65"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="I23" s="87" t="s">
+      <c r="I25" s="93" t="s">
         <v>60</v>
       </c>
-      <c r="J23" s="88" t="s">
+      <c r="J25" s="94" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="58" t="s">
+    <row r="26">
+      <c r="A26" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="59">
+      <c r="B26" s="59">
         <v>5.0</v>
       </c>
-      <c r="C24" s="60">
+      <c r="C26" s="60">
         <v>44075.0</v>
       </c>
-      <c r="D24" s="60">
+      <c r="D26" s="60">
         <v>44439.0</v>
       </c>
-      <c r="E24" s="59" t="s">
+      <c r="E26" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="F24" s="59" t="s">
+      <c r="F26" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="G24" s="59" t="s">
+      <c r="G26" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="H24" s="84" t="s">
+      <c r="H26" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="I24" s="85" t="s">
+      <c r="I26" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="J24" s="86" t="s">
+      <c r="J26" s="84" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="64"/>
-      <c r="B25" s="64"/>
-      <c r="C25" s="64"/>
-      <c r="D25" s="64"/>
-      <c r="E25" s="64"/>
-      <c r="F25" s="64"/>
-      <c r="G25" s="64"/>
-      <c r="H25" s="84" t="s">
+    <row r="27">
+      <c r="A27" s="64"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="64"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="I25" s="74" t="s">
+      <c r="I27" s="74" t="s">
         <v>58</v>
       </c>
-      <c r="J25" s="75" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="65"/>
-      <c r="B26" s="65"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="65"/>
-      <c r="G26" s="65"/>
-      <c r="H26" s="71" t="s">
-        <v>20</v>
-      </c>
-      <c r="I26" s="87" t="s">
-        <v>60</v>
-      </c>
-      <c r="J26" s="88" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="66" t="s">
-        <v>11</v>
-      </c>
-      <c r="B27" s="67">
-        <v>2.0</v>
-      </c>
-      <c r="C27" s="68">
-        <v>42979.0</v>
-      </c>
-      <c r="D27" s="68">
-        <v>43343.0</v>
-      </c>
-      <c r="E27" s="63" t="s">
-        <v>33</v>
-      </c>
-      <c r="F27" s="63" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="63" t="s">
-        <v>29</v>
-      </c>
-      <c r="H27" s="84" t="s">
-        <v>20</v>
-      </c>
-      <c r="I27" s="62" t="s">
-        <v>58</v>
-      </c>
-      <c r="J27" s="63" t="s">
+      <c r="J27" s="75" t="s">
         <v>59</v>
       </c>
     </row>
@@ -48881,10 +48880,10 @@
       <c r="H28" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="I28" s="56" t="s">
+      <c r="I28" s="93" t="s">
         <v>60</v>
       </c>
-      <c r="J28" s="57" t="s">
+      <c r="J28" s="94" t="s">
         <v>59</v>
       </c>
     </row>
@@ -48893,13 +48892,13 @@
         <v>11</v>
       </c>
       <c r="B29" s="67">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C29" s="68">
-        <v>43344.0</v>
+        <v>42979.0</v>
       </c>
       <c r="D29" s="68">
-        <v>43708.0</v>
+        <v>43343.0</v>
       </c>
       <c r="E29" s="63" t="s">
         <v>33</v>
@@ -48908,9 +48907,9 @@
         <v>13</v>
       </c>
       <c r="G29" s="63" t="s">
-        <v>31</v>
-      </c>
-      <c r="H29" s="84" t="s">
+        <v>29</v>
+      </c>
+      <c r="H29" s="91" t="s">
         <v>20</v>
       </c>
       <c r="I29" s="62" t="s">
@@ -48943,31 +48942,31 @@
         <v>11</v>
       </c>
       <c r="B31" s="67">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C31" s="68">
-        <v>42979.0</v>
+        <v>43344.0</v>
       </c>
       <c r="D31" s="68">
-        <v>43343.0</v>
+        <v>43708.0</v>
       </c>
       <c r="E31" s="63" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F31" s="63" t="s">
         <v>13</v>
       </c>
       <c r="G31" s="63" t="s">
-        <v>29</v>
-      </c>
-      <c r="H31" s="84" t="s">
+        <v>31</v>
+      </c>
+      <c r="H31" s="91" t="s">
         <v>20</v>
       </c>
       <c r="I31" s="62" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="J31" s="63" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32">
@@ -48982,7 +48981,7 @@
         <v>20</v>
       </c>
       <c r="I32" s="56" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="J32" s="57" t="s">
         <v>59</v>
@@ -48993,13 +48992,13 @@
         <v>11</v>
       </c>
       <c r="B33" s="67">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C33" s="68">
-        <v>43344.0</v>
+        <v>42979.0</v>
       </c>
       <c r="D33" s="68">
-        <v>43708.0</v>
+        <v>43343.0</v>
       </c>
       <c r="E33" s="63" t="s">
         <v>28</v>
@@ -49008,9 +49007,9 @@
         <v>13</v>
       </c>
       <c r="G33" s="63" t="s">
-        <v>31</v>
-      </c>
-      <c r="H33" s="84" t="s">
+        <v>29</v>
+      </c>
+      <c r="H33" s="91" t="s">
         <v>20</v>
       </c>
       <c r="I33" s="62" t="s">
@@ -49043,13 +49042,13 @@
         <v>11</v>
       </c>
       <c r="B35" s="67">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="C35" s="68">
-        <v>44075.0</v>
+        <v>43344.0</v>
       </c>
       <c r="D35" s="68">
-        <v>44439.0</v>
+        <v>43708.0</v>
       </c>
       <c r="E35" s="63" t="s">
         <v>28</v>
@@ -49058,9 +49057,9 @@
         <v>13</v>
       </c>
       <c r="G35" s="63" t="s">
-        <v>32</v>
-      </c>
-      <c r="H35" s="84" t="s">
+        <v>31</v>
+      </c>
+      <c r="H35" s="91" t="s">
         <v>20</v>
       </c>
       <c r="I35" s="62" t="s">
@@ -49089,184 +49088,200 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="72" t="s">
-        <v>34</v>
-      </c>
-      <c r="B37" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="C37" s="54" t="s">
-        <v>47</v>
-      </c>
-      <c r="D37" s="54" t="s">
-        <v>47</v>
-      </c>
-      <c r="E37" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="F37" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G37" s="54" t="s">
-        <v>49</v>
-      </c>
-      <c r="H37" s="55" t="s">
+      <c r="A37" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="67">
+        <v>5.0</v>
+      </c>
+      <c r="C37" s="68">
+        <v>44075.0</v>
+      </c>
+      <c r="D37" s="68">
+        <v>44439.0</v>
+      </c>
+      <c r="E37" s="63" t="s">
+        <v>28</v>
+      </c>
+      <c r="F37" s="63" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" s="63" t="s">
+        <v>32</v>
+      </c>
+      <c r="H37" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="I37" s="56" t="s">
-        <v>51</v>
-      </c>
-      <c r="J37" s="57" t="s">
+      <c r="I37" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="J37" s="63" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="73" t="s">
-        <v>34</v>
-      </c>
-      <c r="B38" s="59">
-        <v>2.0</v>
-      </c>
-      <c r="C38" s="60">
-        <v>42979.0</v>
-      </c>
-      <c r="D38" s="60">
-        <v>43343.0</v>
-      </c>
-      <c r="E38" s="59" t="s">
-        <v>12</v>
-      </c>
-      <c r="F38" s="59" t="s">
-        <v>26</v>
-      </c>
-      <c r="G38" s="59" t="s">
-        <v>14</v>
-      </c>
-      <c r="H38" s="61" t="s">
+      <c r="A38" s="65"/>
+      <c r="B38" s="65"/>
+      <c r="C38" s="65"/>
+      <c r="D38" s="65"/>
+      <c r="E38" s="65"/>
+      <c r="F38" s="65"/>
+      <c r="G38" s="65"/>
+      <c r="H38" s="91" t="s">
         <v>20</v>
       </c>
       <c r="I38" s="62" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="J38" s="63" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="65"/>
-      <c r="B39" s="65"/>
-      <c r="C39" s="65"/>
-      <c r="D39" s="65"/>
-      <c r="E39" s="65"/>
-      <c r="F39" s="65"/>
-      <c r="G39" s="65"/>
-      <c r="H39" s="55" t="s">
+      <c r="A39" s="95" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" s="88" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" s="88" t="s">
+        <v>47</v>
+      </c>
+      <c r="D39" s="88" t="s">
+        <v>47</v>
+      </c>
+      <c r="E39" s="88" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" s="88" t="s">
+        <v>48</v>
+      </c>
+      <c r="G39" s="88" t="s">
+        <v>49</v>
+      </c>
+      <c r="H39" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="I39" s="56" t="s">
-        <v>60</v>
-      </c>
-      <c r="J39" s="57" t="s">
-        <v>59</v>
+      <c r="I39" s="97" t="s">
+        <v>51</v>
+      </c>
+      <c r="J39" s="97" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="B40" s="59">
-        <v>3.0</v>
-      </c>
-      <c r="C40" s="60">
-        <v>43344.0</v>
-      </c>
-      <c r="D40" s="60">
-        <v>43708.0</v>
-      </c>
-      <c r="E40" s="59" t="s">
+      <c r="B40" s="98" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" s="98"/>
+      <c r="D40" s="98"/>
+      <c r="E40" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="F40" s="59" t="s">
-        <v>26</v>
-      </c>
-      <c r="G40" s="59" t="s">
-        <v>14</v>
-      </c>
-      <c r="H40" s="61" t="s">
+      <c r="F40" s="98" t="s">
+        <v>48</v>
+      </c>
+      <c r="G40" s="98" t="s">
+        <v>27</v>
+      </c>
+      <c r="H40" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="I40" s="62" t="s">
+      <c r="I40" s="100" t="s">
         <v>58</v>
       </c>
-      <c r="J40" s="63" t="s">
+      <c r="J40" s="100" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="65"/>
-      <c r="B41" s="65"/>
-      <c r="C41" s="65"/>
-      <c r="D41" s="65"/>
-      <c r="E41" s="65"/>
-      <c r="F41" s="65"/>
-      <c r="G41" s="65"/>
-      <c r="H41" s="55" t="s">
+      <c r="A41" s="72" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" s="101" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="101"/>
+      <c r="D41" s="101"/>
+      <c r="E41" s="101" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" s="101" t="s">
+        <v>48</v>
+      </c>
+      <c r="G41" s="101" t="s">
+        <v>27</v>
+      </c>
+      <c r="H41" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="I41" s="56" t="s">
+      <c r="I41" s="103" t="s">
         <v>60</v>
       </c>
-      <c r="J41" s="57" t="s">
+      <c r="J41" s="103" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="73" t="s">
-        <v>34</v>
-      </c>
-      <c r="B42" s="59">
-        <v>5.0</v>
-      </c>
-      <c r="C42" s="60">
-        <v>44075.0</v>
-      </c>
-      <c r="D42" s="60">
-        <v>44439.0</v>
-      </c>
-      <c r="E42" s="59" t="s">
+      <c r="A42" s="76" t="s">
+        <v>35</v>
+      </c>
+      <c r="B42" s="88" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" s="88" t="s">
+        <v>47</v>
+      </c>
+      <c r="D42" s="88" t="s">
+        <v>47</v>
+      </c>
+      <c r="E42" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="F42" s="59" t="s">
-        <v>26</v>
-      </c>
-      <c r="G42" s="59" t="s">
-        <v>14</v>
-      </c>
-      <c r="H42" s="61" t="s">
+      <c r="F42" s="88" t="s">
+        <v>48</v>
+      </c>
+      <c r="G42" s="88" t="s">
+        <v>49</v>
+      </c>
+      <c r="H42" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="I42" s="62" t="s">
+      <c r="I42" s="97" t="s">
+        <v>51</v>
+      </c>
+      <c r="J42" s="97" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="76" t="s">
+        <v>35</v>
+      </c>
+      <c r="B43" s="98" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" s="98"/>
+      <c r="D43" s="98"/>
+      <c r="E43" s="98" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" s="98" t="s">
+        <v>48</v>
+      </c>
+      <c r="G43" s="98" t="s">
+        <v>27</v>
+      </c>
+      <c r="H43" s="99" t="s">
+        <v>20</v>
+      </c>
+      <c r="I43" s="100" t="s">
         <v>58</v>
       </c>
-      <c r="J42" s="63" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="65"/>
-      <c r="B43" s="65"/>
-      <c r="C43" s="65"/>
-      <c r="D43" s="65"/>
-      <c r="E43" s="65"/>
-      <c r="F43" s="65"/>
-      <c r="G43" s="65"/>
-      <c r="H43" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="I43" s="56" t="s">
-        <v>60</v>
-      </c>
-      <c r="J43" s="57" t="s">
+      <c r="J43" s="100" t="s">
         <v>59</v>
       </c>
     </row>
@@ -49274,264 +49289,260 @@
       <c r="A44" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="B44" s="54" t="s">
+      <c r="B44" s="101" t="s">
         <v>46</v>
       </c>
-      <c r="C44" s="54" t="s">
+      <c r="C44" s="101"/>
+      <c r="D44" s="101"/>
+      <c r="E44" s="101" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" s="101" t="s">
+        <v>48</v>
+      </c>
+      <c r="G44" s="101" t="s">
+        <v>27</v>
+      </c>
+      <c r="H44" s="102" t="s">
+        <v>20</v>
+      </c>
+      <c r="I44" s="103" t="s">
+        <v>60</v>
+      </c>
+      <c r="J44" s="103" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="78" t="s">
+        <v>36</v>
+      </c>
+      <c r="B45" s="88" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" s="89" t="s">
         <v>47</v>
       </c>
-      <c r="D44" s="54" t="s">
+      <c r="D45" s="89" t="s">
         <v>47</v>
       </c>
-      <c r="E44" s="54" t="s">
+      <c r="E45" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="F44" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="G44" s="54" t="s">
+      <c r="F45" s="89" t="s">
+        <v>48</v>
+      </c>
+      <c r="G45" s="89" t="s">
         <v>49</v>
       </c>
-      <c r="H44" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="I44" s="56" t="s">
+      <c r="H45" s="90" t="s">
+        <v>50</v>
+      </c>
+      <c r="I45" s="91" t="s">
         <v>51</v>
       </c>
-      <c r="J44" s="57" t="s">
+      <c r="J45" s="63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="77" t="s">
-        <v>35</v>
-      </c>
-      <c r="B45" s="59">
-        <v>2.0</v>
-      </c>
-      <c r="C45" s="60">
-        <v>42979.0</v>
-      </c>
-      <c r="D45" s="60">
-        <v>43343.0</v>
-      </c>
-      <c r="E45" s="59" t="s">
+    <row r="46">
+      <c r="A46" s="79" t="s">
+        <v>36</v>
+      </c>
+      <c r="B46" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="D46" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="E46" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="F45" s="59" t="s">
-        <v>26</v>
-      </c>
-      <c r="G45" s="59" t="s">
-        <v>14</v>
-      </c>
-      <c r="H45" s="61" t="s">
-        <v>20</v>
-      </c>
-      <c r="I45" s="62" t="s">
+      <c r="F46" s="59" t="s">
+        <v>48</v>
+      </c>
+      <c r="G46" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="H46" s="61" t="s">
+        <v>50</v>
+      </c>
+      <c r="I46" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="J45" s="63" t="s">
+      <c r="J46" s="63" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="64"/>
-      <c r="B46" s="65"/>
-      <c r="C46" s="65"/>
-      <c r="D46" s="65"/>
-      <c r="E46" s="65"/>
-      <c r="F46" s="65"/>
-      <c r="G46" s="65"/>
-      <c r="H46" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="I46" s="56" t="s">
+    <row r="47">
+      <c r="A47" s="104" t="s">
+        <v>36</v>
+      </c>
+      <c r="B47" s="101" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="D47" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="E47" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="G47" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="H47" s="92" t="s">
+        <v>50</v>
+      </c>
+      <c r="I47" s="91" t="s">
         <v>60</v>
-      </c>
-      <c r="J46" s="57" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="77" t="s">
-        <v>35</v>
-      </c>
-      <c r="B47" s="59">
-        <v>3.0</v>
-      </c>
-      <c r="C47" s="60">
-        <v>43344.0</v>
-      </c>
-      <c r="D47" s="60">
-        <v>43708.0</v>
-      </c>
-      <c r="E47" s="59" t="s">
-        <v>12</v>
-      </c>
-      <c r="F47" s="59" t="s">
-        <v>26</v>
-      </c>
-      <c r="G47" s="59" t="s">
-        <v>14</v>
-      </c>
-      <c r="H47" s="61" t="s">
-        <v>20</v>
-      </c>
-      <c r="I47" s="62" t="s">
-        <v>58</v>
       </c>
       <c r="J47" s="63" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="64"/>
-      <c r="B48" s="65"/>
-      <c r="C48" s="65"/>
-      <c r="D48" s="65"/>
-      <c r="E48" s="65"/>
-      <c r="F48" s="65"/>
-      <c r="G48" s="65"/>
-      <c r="H48" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="I48" s="56" t="s">
-        <v>60</v>
-      </c>
-      <c r="J48" s="57" t="s">
-        <v>59</v>
+      <c r="A48" s="79" t="s">
+        <v>36</v>
+      </c>
+      <c r="B48" s="59">
+        <v>2.0</v>
+      </c>
+      <c r="C48" s="60">
+        <v>42979.0</v>
+      </c>
+      <c r="D48" s="60">
+        <v>43343.0</v>
+      </c>
+      <c r="E48" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="G48" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="H48" s="61" t="s">
+        <v>50</v>
+      </c>
+      <c r="I48" s="85" t="s">
+        <v>61</v>
+      </c>
+      <c r="J48" s="86" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="77" t="s">
-        <v>35</v>
-      </c>
-      <c r="B49" s="59">
-        <v>5.0</v>
-      </c>
-      <c r="C49" s="60">
-        <v>44075.0</v>
-      </c>
-      <c r="D49" s="60">
-        <v>44439.0</v>
-      </c>
-      <c r="E49" s="59" t="s">
-        <v>12</v>
-      </c>
-      <c r="F49" s="59" t="s">
-        <v>26</v>
-      </c>
-      <c r="G49" s="59" t="s">
-        <v>14</v>
-      </c>
+      <c r="A49" s="64"/>
+      <c r="B49" s="64"/>
+      <c r="C49" s="64"/>
+      <c r="D49" s="64"/>
+      <c r="E49" s="64"/>
+      <c r="F49" s="64"/>
+      <c r="G49" s="64"/>
       <c r="H49" s="61" t="s">
         <v>20</v>
       </c>
       <c r="I49" s="62" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="J49" s="63" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="64"/>
-      <c r="B50" s="65"/>
-      <c r="C50" s="65"/>
-      <c r="D50" s="65"/>
-      <c r="E50" s="65"/>
-      <c r="F50" s="65"/>
-      <c r="G50" s="65"/>
-      <c r="H50" s="55" t="s">
+      <c r="B50" s="64"/>
+      <c r="C50" s="64"/>
+      <c r="D50" s="64"/>
+      <c r="E50" s="64"/>
+      <c r="F50" s="64"/>
+      <c r="G50" s="64"/>
+      <c r="H50" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="I50" s="56" t="s">
+      <c r="I50" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="J50" s="63" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="64"/>
+      <c r="B51" s="64"/>
+      <c r="C51" s="64"/>
+      <c r="D51" s="64"/>
+      <c r="E51" s="64"/>
+      <c r="F51" s="64"/>
+      <c r="G51" s="64"/>
+      <c r="H51" s="61" t="s">
+        <v>50</v>
+      </c>
+      <c r="I51" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="J51" s="63" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="65"/>
+      <c r="B52" s="65"/>
+      <c r="C52" s="65"/>
+      <c r="D52" s="65"/>
+      <c r="E52" s="65"/>
+      <c r="F52" s="65"/>
+      <c r="G52" s="65"/>
+      <c r="H52" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="I52" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="J50" s="57" t="s">
+      <c r="J52" s="57" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="78" t="s">
+    <row r="53">
+      <c r="A53" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="B51" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="C51" s="54" t="s">
-        <v>47</v>
-      </c>
-      <c r="D51" s="54" t="s">
-        <v>47</v>
-      </c>
-      <c r="E51" s="54" t="s">
+      <c r="B53" s="59">
+        <v>3.0</v>
+      </c>
+      <c r="C53" s="60">
+        <v>43344.0</v>
+      </c>
+      <c r="D53" s="60">
+        <v>43708.0</v>
+      </c>
+      <c r="E53" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="F51" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="G51" s="54" t="s">
-        <v>49</v>
-      </c>
-      <c r="H51" s="55" t="s">
+      <c r="F53" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="G53" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="H53" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="I51" s="56" t="s">
-        <v>51</v>
-      </c>
-      <c r="J51" s="57" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="78" t="s">
-        <v>36</v>
-      </c>
-      <c r="B52" s="59">
-        <v>2.0</v>
-      </c>
-      <c r="C52" s="60">
-        <v>42979.0</v>
-      </c>
-      <c r="D52" s="60">
-        <v>43343.0</v>
-      </c>
-      <c r="E52" s="59" t="s">
-        <v>12</v>
-      </c>
-      <c r="F52" s="59" t="s">
-        <v>13</v>
-      </c>
-      <c r="G52" s="59" t="s">
-        <v>14</v>
-      </c>
-      <c r="H52" s="61" t="s">
-        <v>50</v>
-      </c>
-      <c r="I52" s="82" t="s">
+      <c r="I53" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="J52" s="83" t="s">
+      <c r="J53" s="86" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="64"/>
-      <c r="B53" s="64"/>
-      <c r="C53" s="64"/>
-      <c r="D53" s="64"/>
-      <c r="E53" s="64"/>
-      <c r="F53" s="64"/>
-      <c r="G53" s="64"/>
-      <c r="H53" s="61" t="s">
-        <v>20</v>
-      </c>
-      <c r="I53" s="62" t="s">
-        <v>63</v>
-      </c>
-      <c r="J53" s="63" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="54">
@@ -49546,7 +49557,7 @@
         <v>20</v>
       </c>
       <c r="I54" s="62" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J54" s="63" t="s">
         <v>52</v>
@@ -49561,81 +49572,81 @@
       <c r="F55" s="64"/>
       <c r="G55" s="64"/>
       <c r="H55" s="61" t="s">
+        <v>20</v>
+      </c>
+      <c r="I55" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="J55" s="63" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="64"/>
+      <c r="B56" s="64"/>
+      <c r="C56" s="64"/>
+      <c r="D56" s="64"/>
+      <c r="E56" s="64"/>
+      <c r="F56" s="64"/>
+      <c r="G56" s="64"/>
+      <c r="H56" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="I55" s="62" t="s">
+      <c r="I56" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="J55" s="63" t="s">
+      <c r="J56" s="63" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="65"/>
-      <c r="B56" s="65"/>
-      <c r="C56" s="65"/>
-      <c r="D56" s="65"/>
-      <c r="E56" s="65"/>
-      <c r="F56" s="65"/>
-      <c r="G56" s="65"/>
-      <c r="H56" s="55" t="s">
+    <row r="57">
+      <c r="A57" s="65"/>
+      <c r="B57" s="65"/>
+      <c r="C57" s="65"/>
+      <c r="D57" s="65"/>
+      <c r="E57" s="65"/>
+      <c r="F57" s="65"/>
+      <c r="G57" s="65"/>
+      <c r="H57" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="I56" s="56" t="s">
+      <c r="I57" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="J56" s="57" t="s">
+      <c r="J57" s="57" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="79" t="s">
+    <row r="58">
+      <c r="A58" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="B57" s="59">
-        <v>3.0</v>
-      </c>
-      <c r="C57" s="60">
-        <v>43344.0</v>
-      </c>
-      <c r="D57" s="60">
-        <v>43708.0</v>
-      </c>
-      <c r="E57" s="59" t="s">
+      <c r="B58" s="59">
+        <v>5.0</v>
+      </c>
+      <c r="C58" s="60">
+        <v>44075.0</v>
+      </c>
+      <c r="D58" s="60">
+        <v>44439.0</v>
+      </c>
+      <c r="E58" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="F57" s="59" t="s">
+      <c r="F58" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="G57" s="59" t="s">
+      <c r="G58" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="H57" s="61" t="s">
+      <c r="H58" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="I57" s="82" t="s">
+      <c r="I58" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="J57" s="83" t="s">
+      <c r="J58" s="86" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="64"/>
-      <c r="B58" s="64"/>
-      <c r="C58" s="64"/>
-      <c r="D58" s="64"/>
-      <c r="E58" s="64"/>
-      <c r="F58" s="64"/>
-      <c r="G58" s="64"/>
-      <c r="H58" s="61" t="s">
-        <v>20</v>
-      </c>
-      <c r="I58" s="62" t="s">
-        <v>63</v>
-      </c>
-      <c r="J58" s="63" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="59">
@@ -49650,7 +49661,7 @@
         <v>20</v>
       </c>
       <c r="I59" s="62" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J59" s="63" t="s">
         <v>52</v>
@@ -49665,111 +49676,125 @@
       <c r="F60" s="64"/>
       <c r="G60" s="64"/>
       <c r="H60" s="61" t="s">
+        <v>20</v>
+      </c>
+      <c r="I60" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="J60" s="63" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="64"/>
+      <c r="B61" s="64"/>
+      <c r="C61" s="64"/>
+      <c r="D61" s="64"/>
+      <c r="E61" s="64"/>
+      <c r="F61" s="64"/>
+      <c r="G61" s="64"/>
+      <c r="H61" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="I60" s="62" t="s">
+      <c r="I61" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="J60" s="63" t="s">
+      <c r="J61" s="63" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="65"/>
-      <c r="B61" s="65"/>
-      <c r="C61" s="65"/>
-      <c r="D61" s="65"/>
-      <c r="E61" s="65"/>
-      <c r="F61" s="65"/>
-      <c r="G61" s="65"/>
-      <c r="H61" s="55" t="s">
+    <row r="62">
+      <c r="A62" s="65"/>
+      <c r="B62" s="65"/>
+      <c r="C62" s="65"/>
+      <c r="D62" s="65"/>
+      <c r="E62" s="65"/>
+      <c r="F62" s="65"/>
+      <c r="G62" s="65"/>
+      <c r="H62" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="I61" s="56" t="s">
+      <c r="I62" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="J61" s="57" t="s">
+      <c r="J62" s="57" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="79" t="s">
+    <row r="63">
+      <c r="A63" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="B62" s="59">
-        <v>5.0</v>
-      </c>
-      <c r="C62" s="60">
-        <v>44075.0</v>
-      </c>
-      <c r="D62" s="60">
-        <v>44439.0</v>
-      </c>
-      <c r="E62" s="59" t="s">
+      <c r="B63" s="59">
+        <v>2.0</v>
+      </c>
+      <c r="C63" s="60">
+        <v>42979.0</v>
+      </c>
+      <c r="D63" s="60">
+        <v>43343.0</v>
+      </c>
+      <c r="E63" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="F62" s="59" t="s">
-        <v>13</v>
-      </c>
-      <c r="G62" s="59" t="s">
-        <v>14</v>
-      </c>
-      <c r="H62" s="61" t="s">
-        <v>50</v>
-      </c>
-      <c r="I62" s="82" t="s">
-        <v>61</v>
-      </c>
-      <c r="J62" s="83" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="64"/>
-      <c r="B63" s="64"/>
-      <c r="C63" s="64"/>
-      <c r="D63" s="64"/>
-      <c r="E63" s="64"/>
-      <c r="F63" s="64"/>
-      <c r="G63" s="64"/>
+      <c r="F63" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="G63" s="59" t="s">
+        <v>27</v>
+      </c>
       <c r="H63" s="61" t="s">
         <v>20</v>
       </c>
       <c r="I63" s="62" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="J63" s="63" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="64"/>
-      <c r="B64" s="64"/>
-      <c r="C64" s="64"/>
-      <c r="D64" s="64"/>
-      <c r="E64" s="64"/>
-      <c r="F64" s="64"/>
-      <c r="G64" s="64"/>
-      <c r="H64" s="61" t="s">
+      <c r="A64" s="65"/>
+      <c r="B64" s="65"/>
+      <c r="C64" s="65"/>
+      <c r="D64" s="65"/>
+      <c r="E64" s="65"/>
+      <c r="F64" s="65"/>
+      <c r="G64" s="65"/>
+      <c r="H64" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="I64" s="62" t="s">
-        <v>64</v>
-      </c>
-      <c r="J64" s="63" t="s">
-        <v>52</v>
+      <c r="I64" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="J64" s="57" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="64"/>
-      <c r="B65" s="64"/>
-      <c r="C65" s="64"/>
-      <c r="D65" s="64"/>
-      <c r="E65" s="64"/>
-      <c r="F65" s="64"/>
-      <c r="G65" s="64"/>
+      <c r="A65" s="79" t="s">
+        <v>36</v>
+      </c>
+      <c r="B65" s="59">
+        <v>3.0</v>
+      </c>
+      <c r="C65" s="60">
+        <v>43344.0</v>
+      </c>
+      <c r="D65" s="60">
+        <v>43708.0</v>
+      </c>
+      <c r="E65" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="F65" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="G65" s="59" t="s">
+        <v>27</v>
+      </c>
       <c r="H65" s="61" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="I65" s="62" t="s">
         <v>58</v>
@@ -49787,7 +49812,7 @@
       <c r="F66" s="65"/>
       <c r="G66" s="65"/>
       <c r="H66" s="55" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="I66" s="56" t="s">
         <v>60</v>
@@ -49801,13 +49826,13 @@
         <v>36</v>
       </c>
       <c r="B67" s="59">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="C67" s="60">
-        <v>42979.0</v>
+        <v>44075.0</v>
       </c>
       <c r="D67" s="60">
-        <v>43343.0</v>
+        <v>44439.0</v>
       </c>
       <c r="E67" s="59" t="s">
         <v>12</v>
@@ -49850,25 +49875,25 @@
       <c r="A69" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="B69" s="59">
-        <v>3.0</v>
-      </c>
-      <c r="C69" s="60">
-        <v>43344.0</v>
-      </c>
-      <c r="D69" s="60">
-        <v>43708.0</v>
-      </c>
-      <c r="E69" s="59" t="s">
-        <v>12</v>
-      </c>
-      <c r="F69" s="59" t="s">
-        <v>26</v>
-      </c>
-      <c r="G69" s="59" t="s">
-        <v>27</v>
-      </c>
-      <c r="H69" s="61" t="s">
+      <c r="B69" s="67">
+        <v>2.0</v>
+      </c>
+      <c r="C69" s="68">
+        <v>42979.0</v>
+      </c>
+      <c r="D69" s="68">
+        <v>43343.0</v>
+      </c>
+      <c r="E69" s="63" t="s">
+        <v>33</v>
+      </c>
+      <c r="F69" s="63" t="s">
+        <v>13</v>
+      </c>
+      <c r="G69" s="63" t="s">
+        <v>29</v>
+      </c>
+      <c r="H69" s="91" t="s">
         <v>20</v>
       </c>
       <c r="I69" s="62" t="s">
@@ -49886,7 +49911,7 @@
       <c r="E70" s="65"/>
       <c r="F70" s="65"/>
       <c r="G70" s="65"/>
-      <c r="H70" s="55" t="s">
+      <c r="H70" s="71" t="s">
         <v>20</v>
       </c>
       <c r="I70" s="56" t="s">
@@ -49900,25 +49925,25 @@
       <c r="A71" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="B71" s="59">
-        <v>5.0</v>
-      </c>
-      <c r="C71" s="60">
-        <v>44075.0</v>
-      </c>
-      <c r="D71" s="60">
-        <v>44439.0</v>
-      </c>
-      <c r="E71" s="59" t="s">
-        <v>12</v>
-      </c>
-      <c r="F71" s="59" t="s">
-        <v>26</v>
-      </c>
-      <c r="G71" s="59" t="s">
-        <v>27</v>
-      </c>
-      <c r="H71" s="61" t="s">
+      <c r="B71" s="67">
+        <v>3.0</v>
+      </c>
+      <c r="C71" s="68">
+        <v>43344.0</v>
+      </c>
+      <c r="D71" s="68">
+        <v>43708.0</v>
+      </c>
+      <c r="E71" s="63" t="s">
+        <v>33</v>
+      </c>
+      <c r="F71" s="63" t="s">
+        <v>13</v>
+      </c>
+      <c r="G71" s="63" t="s">
+        <v>31</v>
+      </c>
+      <c r="H71" s="91" t="s">
         <v>20</v>
       </c>
       <c r="I71" s="62" t="s">
@@ -49936,7 +49961,7 @@
       <c r="E72" s="65"/>
       <c r="F72" s="65"/>
       <c r="G72" s="65"/>
-      <c r="H72" s="55" t="s">
+      <c r="H72" s="71" t="s">
         <v>20</v>
       </c>
       <c r="I72" s="56" t="s">
@@ -49947,317 +49972,329 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="79" t="s">
-        <v>36</v>
-      </c>
-      <c r="B73" s="67">
-        <v>2.0</v>
-      </c>
-      <c r="C73" s="68">
-        <v>42979.0</v>
-      </c>
-      <c r="D73" s="68">
-        <v>43343.0</v>
-      </c>
-      <c r="E73" s="63" t="s">
-        <v>33</v>
-      </c>
-      <c r="F73" s="63" t="s">
-        <v>13</v>
-      </c>
-      <c r="G73" s="63" t="s">
-        <v>29</v>
-      </c>
-      <c r="H73" s="84" t="s">
-        <v>20</v>
-      </c>
-      <c r="I73" s="62" t="s">
+      <c r="A73" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="B73" s="88" t="s">
+        <v>46</v>
+      </c>
+      <c r="C73" s="89" t="s">
+        <v>47</v>
+      </c>
+      <c r="D73" s="89" t="s">
+        <v>47</v>
+      </c>
+      <c r="E73" s="89" t="s">
+        <v>12</v>
+      </c>
+      <c r="F73" s="89" t="s">
+        <v>48</v>
+      </c>
+      <c r="G73" s="89" t="s">
+        <v>49</v>
+      </c>
+      <c r="H73" s="90" t="s">
+        <v>50</v>
+      </c>
+      <c r="I73" s="91" t="s">
+        <v>51</v>
+      </c>
+      <c r="J73" s="63" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="105" t="s">
+        <v>37</v>
+      </c>
+      <c r="B74" s="98" t="s">
+        <v>46</v>
+      </c>
+      <c r="C74" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="D74" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="E74" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="F74" s="59" t="s">
+        <v>48</v>
+      </c>
+      <c r="G74" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="H74" s="61" t="s">
+        <v>50</v>
+      </c>
+      <c r="I74" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="J73" s="63" t="s">
+      <c r="J74" s="63" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="65"/>
-      <c r="B74" s="65"/>
-      <c r="C74" s="65"/>
-      <c r="D74" s="65"/>
-      <c r="E74" s="65"/>
-      <c r="F74" s="65"/>
-      <c r="G74" s="65"/>
-      <c r="H74" s="71" t="s">
-        <v>20</v>
-      </c>
-      <c r="I74" s="56" t="s">
+    <row r="75">
+      <c r="A75" s="80" t="s">
+        <v>37</v>
+      </c>
+      <c r="B75" s="101" t="s">
+        <v>46</v>
+      </c>
+      <c r="C75" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="D75" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="E75" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="F75" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="G75" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="H75" s="92" t="s">
+        <v>50</v>
+      </c>
+      <c r="I75" s="91" t="s">
         <v>60</v>
-      </c>
-      <c r="J74" s="57" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="79" t="s">
-        <v>36</v>
-      </c>
-      <c r="B75" s="67">
-        <v>3.0</v>
-      </c>
-      <c r="C75" s="68">
-        <v>43344.0</v>
-      </c>
-      <c r="D75" s="68">
-        <v>43708.0</v>
-      </c>
-      <c r="E75" s="63" t="s">
-        <v>33</v>
-      </c>
-      <c r="F75" s="63" t="s">
-        <v>13</v>
-      </c>
-      <c r="G75" s="63" t="s">
-        <v>31</v>
-      </c>
-      <c r="H75" s="84" t="s">
-        <v>20</v>
-      </c>
-      <c r="I75" s="62" t="s">
-        <v>58</v>
       </c>
       <c r="J75" s="63" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="65"/>
-      <c r="B76" s="65"/>
-      <c r="C76" s="65"/>
-      <c r="D76" s="65"/>
-      <c r="E76" s="65"/>
-      <c r="F76" s="65"/>
-      <c r="G76" s="65"/>
-      <c r="H76" s="71" t="s">
-        <v>20</v>
-      </c>
-      <c r="I76" s="56" t="s">
+      <c r="A76" s="105" t="s">
+        <v>37</v>
+      </c>
+      <c r="B76" s="59">
+        <v>2.0</v>
+      </c>
+      <c r="C76" s="60">
+        <v>42979.0</v>
+      </c>
+      <c r="D76" s="60">
+        <v>43343.0</v>
+      </c>
+      <c r="E76" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="F76" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="G76" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="H76" s="61" t="s">
+        <v>50</v>
+      </c>
+      <c r="I76" s="85" t="s">
+        <v>61</v>
+      </c>
+      <c r="J76" s="86" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="64"/>
+      <c r="B77" s="64"/>
+      <c r="C77" s="64"/>
+      <c r="D77" s="64"/>
+      <c r="E77" s="64"/>
+      <c r="F77" s="64"/>
+      <c r="G77" s="64"/>
+      <c r="H77" s="61" t="s">
+        <v>50</v>
+      </c>
+      <c r="I77" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="J77" s="63" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="65"/>
+      <c r="B78" s="65"/>
+      <c r="C78" s="65"/>
+      <c r="D78" s="65"/>
+      <c r="E78" s="65"/>
+      <c r="F78" s="65"/>
+      <c r="G78" s="65"/>
+      <c r="H78" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="I78" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="J76" s="57" t="s">
+      <c r="J78" s="57" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="80" t="s">
-        <v>37</v>
-      </c>
-      <c r="B77" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="C77" s="54" t="s">
-        <v>47</v>
-      </c>
-      <c r="D77" s="54" t="s">
-        <v>47</v>
-      </c>
-      <c r="E77" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="F77" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="G77" s="54" t="s">
-        <v>49</v>
-      </c>
-      <c r="H77" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="I77" s="56" t="s">
-        <v>51</v>
-      </c>
-      <c r="J77" s="57" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="89" t="s">
-        <v>37</v>
-      </c>
-      <c r="B78" s="59">
-        <v>2.0</v>
-      </c>
-      <c r="C78" s="60">
-        <v>42979.0</v>
-      </c>
-      <c r="D78" s="60">
-        <v>43343.0</v>
-      </c>
-      <c r="E78" s="59" t="s">
-        <v>12</v>
-      </c>
-      <c r="F78" s="59" t="s">
-        <v>13</v>
-      </c>
-      <c r="G78" s="59" t="s">
-        <v>14</v>
-      </c>
-      <c r="H78" s="61" t="s">
-        <v>50</v>
-      </c>
-      <c r="I78" s="82" t="s">
-        <v>61</v>
-      </c>
-      <c r="J78" s="83" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="B79" s="64"/>
-      <c r="C79" s="64"/>
-      <c r="D79" s="64"/>
-      <c r="E79" s="64"/>
-      <c r="F79" s="64"/>
-      <c r="G79" s="64"/>
+      <c r="B79" s="59">
+        <v>3.0</v>
+      </c>
+      <c r="C79" s="60">
+        <v>43344.0</v>
+      </c>
+      <c r="D79" s="60">
+        <v>43708.0</v>
+      </c>
+      <c r="E79" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="F79" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="G79" s="59" t="s">
+        <v>14</v>
+      </c>
       <c r="H79" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="I79" s="62" t="s">
-        <v>58</v>
-      </c>
-      <c r="J79" s="63" t="s">
-        <v>59</v>
+      <c r="I79" s="85" t="s">
+        <v>61</v>
+      </c>
+      <c r="J79" s="86" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="64"/>
-      <c r="B80" s="65"/>
-      <c r="C80" s="65"/>
-      <c r="D80" s="65"/>
-      <c r="E80" s="65"/>
-      <c r="F80" s="65"/>
-      <c r="G80" s="65"/>
-      <c r="H80" s="55" t="s">
+      <c r="B80" s="64"/>
+      <c r="C80" s="64"/>
+      <c r="D80" s="64"/>
+      <c r="E80" s="64"/>
+      <c r="F80" s="64"/>
+      <c r="G80" s="64"/>
+      <c r="H80" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="I80" s="56" t="s">
+      <c r="I80" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="J80" s="63" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="64"/>
+      <c r="B81" s="65"/>
+      <c r="C81" s="65"/>
+      <c r="D81" s="65"/>
+      <c r="E81" s="65"/>
+      <c r="F81" s="65"/>
+      <c r="G81" s="65"/>
+      <c r="H81" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="I81" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="J80" s="57" t="s">
+      <c r="J81" s="57" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="65"/>
-      <c r="B81" s="59">
-        <v>3.0</v>
-      </c>
-      <c r="C81" s="60">
-        <v>43344.0</v>
-      </c>
-      <c r="D81" s="60">
-        <v>43708.0</v>
-      </c>
-      <c r="E81" s="59" t="s">
+    <row r="82">
+      <c r="A82" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="B82" s="59">
+        <v>5.0</v>
+      </c>
+      <c r="C82" s="60">
+        <v>44075.0</v>
+      </c>
+      <c r="D82" s="60">
+        <v>44439.0</v>
+      </c>
+      <c r="E82" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="F81" s="59" t="s">
+      <c r="F82" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="G81" s="59" t="s">
+      <c r="G82" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="H81" s="61" t="s">
-        <v>50</v>
-      </c>
-      <c r="I81" s="82" t="s">
-        <v>61</v>
-      </c>
-      <c r="J81" s="83" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="89"/>
-      <c r="B82" s="64"/>
-      <c r="C82" s="64"/>
-      <c r="D82" s="64"/>
-      <c r="E82" s="64"/>
-      <c r="F82" s="64"/>
-      <c r="G82" s="64"/>
       <c r="H82" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="I82" s="62" t="s">
+      <c r="I82" s="85" t="s">
+        <v>61</v>
+      </c>
+      <c r="J82" s="86" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="64"/>
+      <c r="B83" s="64"/>
+      <c r="C83" s="64"/>
+      <c r="D83" s="64"/>
+      <c r="E83" s="64"/>
+      <c r="F83" s="64"/>
+      <c r="G83" s="64"/>
+      <c r="H83" s="61" t="s">
+        <v>50</v>
+      </c>
+      <c r="I83" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="J82" s="63" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="81" t="s">
-        <v>37</v>
-      </c>
-      <c r="B83" s="65"/>
-      <c r="C83" s="65"/>
-      <c r="D83" s="65"/>
-      <c r="E83" s="65"/>
-      <c r="F83" s="65"/>
-      <c r="G83" s="65"/>
-      <c r="H83" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="I83" s="56" t="s">
-        <v>60</v>
-      </c>
-      <c r="J83" s="57" t="s">
+      <c r="J83" s="63" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="65"/>
-      <c r="B84" s="59">
-        <v>5.0</v>
-      </c>
-      <c r="C84" s="60">
-        <v>44075.0</v>
-      </c>
-      <c r="D84" s="60">
-        <v>44439.0</v>
-      </c>
-      <c r="E84" s="59" t="s">
-        <v>12</v>
-      </c>
-      <c r="F84" s="59" t="s">
-        <v>13</v>
-      </c>
-      <c r="G84" s="59" t="s">
-        <v>14</v>
-      </c>
-      <c r="H84" s="61" t="s">
+      <c r="B84" s="65"/>
+      <c r="C84" s="65"/>
+      <c r="D84" s="65"/>
+      <c r="E84" s="65"/>
+      <c r="F84" s="65"/>
+      <c r="G84" s="65"/>
+      <c r="H84" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="I84" s="82" t="s">
-        <v>61</v>
-      </c>
-      <c r="J84" s="83" t="s">
-        <v>62</v>
+      <c r="I84" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="J84" s="57" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="B85" s="64"/>
-      <c r="C85" s="64"/>
-      <c r="D85" s="64"/>
-      <c r="E85" s="64"/>
-      <c r="F85" s="64"/>
-      <c r="G85" s="64"/>
+      <c r="B85" s="59">
+        <v>2.0</v>
+      </c>
+      <c r="C85" s="60">
+        <v>42979.0</v>
+      </c>
+      <c r="D85" s="60">
+        <v>43343.0</v>
+      </c>
+      <c r="E85" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="F85" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="G85" s="59" t="s">
+        <v>27</v>
+      </c>
       <c r="H85" s="61" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="I85" s="62" t="s">
         <v>58</v>
@@ -50275,7 +50312,7 @@
       <c r="F86" s="65"/>
       <c r="G86" s="65"/>
       <c r="H86" s="55" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="I86" s="56" t="s">
         <v>60</v>
@@ -50289,13 +50326,13 @@
         <v>37</v>
       </c>
       <c r="B87" s="59">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C87" s="60">
-        <v>42979.0</v>
+        <v>43344.0</v>
       </c>
       <c r="D87" s="60">
-        <v>43343.0</v>
+        <v>43708.0</v>
       </c>
       <c r="E87" s="59" t="s">
         <v>12</v>
@@ -50339,13 +50376,13 @@
         <v>37</v>
       </c>
       <c r="B89" s="59">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C89" s="60">
-        <v>43344.0</v>
+        <v>44075.0</v>
       </c>
       <c r="D89" s="60">
-        <v>43708.0</v>
+        <v>44439.0</v>
       </c>
       <c r="E89" s="59" t="s">
         <v>12</v>
@@ -50385,54 +50422,14 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="81" t="s">
-        <v>37</v>
-      </c>
-      <c r="B91" s="59">
-        <v>5.0</v>
-      </c>
-      <c r="C91" s="60">
-        <v>44075.0</v>
-      </c>
-      <c r="D91" s="60">
-        <v>44439.0</v>
-      </c>
-      <c r="E91" s="59" t="s">
-        <v>12</v>
-      </c>
-      <c r="F91" s="59" t="s">
-        <v>26</v>
-      </c>
-      <c r="G91" s="59" t="s">
-        <v>27</v>
-      </c>
-      <c r="H91" s="61" t="s">
-        <v>20</v>
-      </c>
-      <c r="I91" s="62" t="s">
-        <v>58</v>
-      </c>
-      <c r="J91" s="63" t="s">
-        <v>59</v>
-      </c>
+      <c r="H91" s="70"/>
+      <c r="I91" s="70"/>
+      <c r="J91" s="70"/>
     </row>
     <row r="92">
-      <c r="A92" s="65"/>
-      <c r="B92" s="65"/>
-      <c r="C92" s="65"/>
-      <c r="D92" s="65"/>
-      <c r="E92" s="65"/>
-      <c r="F92" s="65"/>
-      <c r="G92" s="65"/>
-      <c r="H92" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="I92" s="56" t="s">
-        <v>60</v>
-      </c>
-      <c r="J92" s="57" t="s">
-        <v>59</v>
-      </c>
+      <c r="H92" s="70"/>
+      <c r="I92" s="70"/>
+      <c r="J92" s="70"/>
     </row>
     <row r="93">
       <c r="H93" s="70"/>
@@ -54824,32 +54821,36 @@
       <c r="I970" s="70"/>
       <c r="J970" s="70"/>
     </row>
-    <row r="971">
-      <c r="H971" s="70"/>
-      <c r="I971" s="70"/>
-      <c r="J971" s="70"/>
-    </row>
-    <row r="972">
-      <c r="H972" s="70"/>
-      <c r="I972" s="70"/>
-      <c r="J972" s="70"/>
-    </row>
   </sheetData>
-  <mergeCells count="217">
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="C57:C61"/>
-    <mergeCell ref="D57:D61"/>
-    <mergeCell ref="E57:E61"/>
-    <mergeCell ref="F57:F61"/>
-    <mergeCell ref="G57:G61"/>
-    <mergeCell ref="A62:A66"/>
-    <mergeCell ref="B62:B66"/>
-    <mergeCell ref="C62:C66"/>
-    <mergeCell ref="D62:D66"/>
-    <mergeCell ref="E62:E66"/>
-    <mergeCell ref="F62:F66"/>
-    <mergeCell ref="G62:G66"/>
+  <mergeCells count="175">
+    <mergeCell ref="A53:A57"/>
+    <mergeCell ref="B53:B57"/>
+    <mergeCell ref="C53:C57"/>
+    <mergeCell ref="D53:D57"/>
+    <mergeCell ref="E53:E57"/>
+    <mergeCell ref="F53:F57"/>
+    <mergeCell ref="G53:G57"/>
+    <mergeCell ref="A58:A62"/>
+    <mergeCell ref="B58:B62"/>
+    <mergeCell ref="C58:C62"/>
+    <mergeCell ref="D58:D62"/>
+    <mergeCell ref="E58:E62"/>
+    <mergeCell ref="F58:F62"/>
+    <mergeCell ref="G58:G62"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="G69:G70"/>
     <mergeCell ref="A71:A72"/>
     <mergeCell ref="B71:B72"/>
     <mergeCell ref="C71:C72"/>
@@ -54857,41 +54858,34 @@
     <mergeCell ref="E71:E72"/>
     <mergeCell ref="F71:F72"/>
     <mergeCell ref="G71:G72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="C78:C80"/>
-    <mergeCell ref="D78:D80"/>
-    <mergeCell ref="E78:E80"/>
-    <mergeCell ref="F78:F80"/>
-    <mergeCell ref="G78:G80"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="C76:C78"/>
+    <mergeCell ref="D76:D78"/>
+    <mergeCell ref="E76:E78"/>
+    <mergeCell ref="F76:F78"/>
+    <mergeCell ref="G76:G78"/>
+    <mergeCell ref="A76:A78"/>
+    <mergeCell ref="B79:B81"/>
+    <mergeCell ref="C79:C81"/>
+    <mergeCell ref="D79:D81"/>
+    <mergeCell ref="E79:E81"/>
+    <mergeCell ref="F79:F81"/>
+    <mergeCell ref="G79:G81"/>
     <mergeCell ref="A79:A81"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="C81:C83"/>
-    <mergeCell ref="D81:D83"/>
-    <mergeCell ref="E81:E83"/>
-    <mergeCell ref="F81:F83"/>
-    <mergeCell ref="G81:G83"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="C84:C86"/>
-    <mergeCell ref="D84:D86"/>
-    <mergeCell ref="E84:E86"/>
-    <mergeCell ref="F84:F86"/>
-    <mergeCell ref="G84:G86"/>
+    <mergeCell ref="B82:B84"/>
+    <mergeCell ref="C82:C84"/>
+    <mergeCell ref="D82:D84"/>
+    <mergeCell ref="E82:E84"/>
+    <mergeCell ref="F82:F84"/>
+    <mergeCell ref="G82:G84"/>
+    <mergeCell ref="A82:A84"/>
     <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G85:G86"/>
     <mergeCell ref="A87:A88"/>
     <mergeCell ref="B87:B88"/>
     <mergeCell ref="C87:C88"/>
@@ -54899,6 +54893,41 @@
     <mergeCell ref="E87:E88"/>
     <mergeCell ref="F87:F88"/>
     <mergeCell ref="G87:G88"/>
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="C5:C9"/>
+    <mergeCell ref="D5:D9"/>
+    <mergeCell ref="E5:E9"/>
+    <mergeCell ref="F5:F9"/>
+    <mergeCell ref="G5:G9"/>
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="C10:C14"/>
+    <mergeCell ref="D10:D14"/>
+    <mergeCell ref="E10:E14"/>
+    <mergeCell ref="F10:F14"/>
+    <mergeCell ref="G10:G14"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="D15:D19"/>
+    <mergeCell ref="E15:E19"/>
+    <mergeCell ref="F15:F19"/>
+    <mergeCell ref="G15:G19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="G23:G25"/>
     <mergeCell ref="A89:A90"/>
     <mergeCell ref="B89:B90"/>
     <mergeCell ref="C89:C90"/>
@@ -54906,62 +54935,14 @@
     <mergeCell ref="E89:E90"/>
     <mergeCell ref="F89:F90"/>
     <mergeCell ref="G89:G90"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="E3:E7"/>
-    <mergeCell ref="F3:F7"/>
-    <mergeCell ref="G3:G7"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="C8:C12"/>
-    <mergeCell ref="D8:D12"/>
-    <mergeCell ref="E8:E12"/>
-    <mergeCell ref="F8:F12"/>
-    <mergeCell ref="G8:G12"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="C13:C17"/>
-    <mergeCell ref="D13:D17"/>
-    <mergeCell ref="E13:E17"/>
-    <mergeCell ref="F13:F17"/>
-    <mergeCell ref="G13:G17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="G24:G26"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="G26:G28"/>
+    <mergeCell ref="A48:A52"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="C29:C30"/>
@@ -54990,81 +54971,45 @@
     <mergeCell ref="E35:E36"/>
     <mergeCell ref="F35:F36"/>
     <mergeCell ref="G35:G36"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="A52:A56"/>
-    <mergeCell ref="B52:B56"/>
-    <mergeCell ref="C52:C56"/>
-    <mergeCell ref="D52:D56"/>
-    <mergeCell ref="E52:E56"/>
-    <mergeCell ref="F52:F56"/>
-    <mergeCell ref="G52:G56"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="B48:B52"/>
+    <mergeCell ref="C48:C52"/>
+    <mergeCell ref="D48:D52"/>
+    <mergeCell ref="E48:E52"/>
+    <mergeCell ref="F48:F52"/>
+    <mergeCell ref="G48:G52"/>
   </mergeCells>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:F3 F8 F13 F18 F21 F24 F27 F29 F31 F33 F35 F37:F38 F40 F42 F44:F45 F47 F49 F51:F52 F57 F62 F67 F69 F71 F73 F75 F77:F78 F81 F84 F87 F89 F91">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:F5 F10 F15 F20 F23 F26 F29 F31 F33 F35 F37 F39:F48 F53 F58 F63 F65 F67 F69 F71 F73:F76 F79 F82 F85 F87 F89">
       <formula1>"Specific,Sensitive,Both"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H2:H92">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H2:H90">
       <formula1>"Main,Supplement"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:G3 G8 G13 G18 G21 G24 G27 G29 G31 G33 G35 G37:G38 G40 G42 G44:G45 G47 G49 G51:G52 G57 G62 G67 G69 G71 G73 G75 G77:G78 G81 G84 G87 G89 G91">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:G5 G10 G15 G20 G23 G26 G29 G31 G33 G35 G37 G39:G48 G53 G58 G63 G65 G67 G69 G71 G73:G76 G79 G82 G85 G87 G89">
       <formula1>"COVID,Flu,RSV,RSV; Flu; COVID,RSV; Flu; COVID; Overall,NA"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E3 E8 E13 E18 E21 E24 E27 E29 E31 E33 E35 E37:E38 E40 E42 E44:E45 E47 E49 E51:E52 E57 E62 E67 E69 E71 E73 E75 E77:E78 E81 E84 E87 E89 E91">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E5 E10 E15 E20 E23 E26 E29 E31 E33 E35 E37 E39:E48 E53 E58 E63 E65 E67 E69 E71 E73:E76 E79 E82 E85 E87 E89">
       <formula1>"Primary,Secondary,Sensitivity"</formula1>
     </dataValidation>
   </dataValidations>
